--- a/data/final/scoresTable.xlsx
+++ b/data/final/scoresTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/county-index/data/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/county-index/county-index/data/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A2A48-976D-AA4C-A890-6CC07EE1D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C4928-D3E9-394B-98A9-53D4FC8F107B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30500" yWindow="6160" windowWidth="28040" windowHeight="17440" xr2:uid="{8263D941-754F-9146-9FDE-221C41274B6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="scoresTable" sheetId="4" r:id="rId1"/>
+    <sheet name="scoresTable" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -537,17 +537,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -562,7 +554,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -570,34 +562,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,11 +882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFEF609-DE30-C147-9803-841C2C16501D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F28E72-A295-024E-832C-925DB2B4D6A2}">
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,22 +895,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -948,19 +919,19 @@
         <v>70</v>
       </c>
       <c r="B2" s="1">
-        <v>48.25689995688878</v>
+        <v>51.304522018</v>
       </c>
       <c r="C2" s="1">
-        <v>51.89167291844587</v>
+        <v>51.891672917999998</v>
       </c>
       <c r="D2" s="1">
-        <v>41.214448411000177</v>
+        <v>47.281296400000002</v>
       </c>
       <c r="E2" s="1">
-        <v>36.696590007519568</v>
+        <v>36.696590008000001</v>
       </c>
       <c r="F2" s="1">
-        <v>64.928727782755217</v>
+        <v>71.066566107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -968,19 +939,19 @@
         <v>101</v>
       </c>
       <c r="B3" s="1">
-        <v>46.500801412624917</v>
+        <v>45.627891345999998</v>
       </c>
       <c r="C3" s="1">
-        <v>58.556833440396979</v>
+        <v>58.556833439999998</v>
       </c>
       <c r="D3" s="1">
-        <v>47.026167261348043</v>
+        <v>47.403236251000003</v>
       </c>
       <c r="E3" s="1">
-        <v>9.2165044222773389</v>
+        <v>9.2165044219999999</v>
       </c>
       <c r="F3" s="1">
-        <v>64.913001588229747</v>
+        <v>59.982847773000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -988,19 +959,19 @@
         <v>102</v>
       </c>
       <c r="B4" s="1">
-        <v>45.924598683744023</v>
+        <v>49.586930709999997</v>
       </c>
       <c r="C4" s="1">
-        <v>53.145961921546672</v>
+        <v>53.145961921999998</v>
       </c>
       <c r="D4" s="1">
-        <v>46.860531550691938</v>
+        <v>53.149777295</v>
       </c>
       <c r="E4" s="1">
-        <v>28.563963374844281</v>
+        <v>28.563963375</v>
       </c>
       <c r="F4" s="1">
-        <v>51.049289835517953</v>
+        <v>59.927081350000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,19 +979,19 @@
         <v>71</v>
       </c>
       <c r="B5" s="1">
-        <v>50.108832668329512</v>
+        <v>47.194683034999997</v>
       </c>
       <c r="C5" s="1">
-        <v>37.329915209697823</v>
+        <v>37.329915210000003</v>
       </c>
       <c r="D5" s="1">
-        <v>52.979265618843613</v>
+        <v>52.230963809000002</v>
       </c>
       <c r="E5" s="1">
-        <v>34.311489227213812</v>
+        <v>34.311489227000003</v>
       </c>
       <c r="F5" s="1">
-        <v>80.768902871621634</v>
+        <v>67.320607420000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,19 +999,19 @@
         <v>72</v>
       </c>
       <c r="B6" s="1">
-        <v>49.560417459594433</v>
+        <v>49.980421202999999</v>
       </c>
       <c r="C6" s="1">
-        <v>39.342482184307812</v>
+        <v>39.342482183999998</v>
       </c>
       <c r="D6" s="1">
-        <v>56.517914449763659</v>
+        <v>59.470826297999999</v>
       </c>
       <c r="E6" s="1">
-        <v>48.302842778342573</v>
+        <v>48.302842777999999</v>
       </c>
       <c r="F6" s="1">
-        <v>55.708649568522418</v>
+        <v>53.379300510999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,19 +1019,19 @@
         <v>38</v>
       </c>
       <c r="B7" s="1">
-        <v>50.968968363760943</v>
+        <v>52.698397481000001</v>
       </c>
       <c r="C7" s="1">
-        <v>56.939698947033733</v>
+        <v>56.939698946999997</v>
       </c>
       <c r="D7" s="1">
-        <v>40.925815499202507</v>
+        <v>45.473731520999998</v>
       </c>
       <c r="E7" s="1">
-        <v>33.895105299851458</v>
+        <v>33.895105299999997</v>
       </c>
       <c r="F7" s="1">
-        <v>74.151464849598824</v>
+        <v>75.976736403000004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,19 +1039,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>58.645843464261553</v>
+        <v>60.134589918000003</v>
       </c>
       <c r="C8" s="1">
-        <v>66.103382488345645</v>
+        <v>66.103382487999994</v>
       </c>
       <c r="D8" s="1">
-        <v>54.767784798680083</v>
+        <v>56.809643807</v>
       </c>
       <c r="E8" s="1">
-        <v>39.258867731785998</v>
+        <v>39.258867731999999</v>
       </c>
       <c r="F8" s="1">
-        <v>72.663598658983176</v>
+        <v>77.044542414999995</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1088,19 +1059,19 @@
         <v>39</v>
       </c>
       <c r="B9" s="1">
-        <v>54.605000226117987</v>
+        <v>57.491861673999999</v>
       </c>
       <c r="C9" s="1">
-        <v>55.732055028888567</v>
+        <v>55.732055029000001</v>
       </c>
       <c r="D9" s="1">
-        <v>48.230068895437583</v>
+        <v>56.229995993999999</v>
       </c>
       <c r="E9" s="1">
-        <v>46.201850833847168</v>
+        <v>46.201850833999998</v>
       </c>
       <c r="F9" s="1">
-        <v>70.87996441025355</v>
+        <v>73.314381001000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,19 +1079,19 @@
         <v>133</v>
       </c>
       <c r="B10" s="1">
-        <v>38.945622779999077</v>
+        <v>39.698040902000002</v>
       </c>
       <c r="C10" s="1">
-        <v>33.277813006308079</v>
+        <v>33.277813006000002</v>
       </c>
       <c r="D10" s="1">
-        <v>43.694939005816479</v>
+        <v>48.353839299999997</v>
       </c>
       <c r="E10" s="1">
-        <v>32.017088792313388</v>
+        <v>32.017088792000003</v>
       </c>
       <c r="F10" s="1">
-        <v>47.251897089495188</v>
+        <v>44.025637260000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,19 +1099,19 @@
         <v>134</v>
       </c>
       <c r="B11" s="1">
-        <v>41.897250078467067</v>
+        <v>44.563872367000002</v>
       </c>
       <c r="C11" s="1">
-        <v>43.232805455995198</v>
+        <v>43.232805456000001</v>
       </c>
       <c r="D11" s="1">
-        <v>43.190221931408793</v>
+        <v>49.314262294000002</v>
       </c>
       <c r="E11" s="1">
-        <v>17.542511846892591</v>
+        <v>17.542511847</v>
       </c>
       <c r="F11" s="1">
-        <v>62.309197464336783</v>
+        <v>66.456248364000004</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,19 +1119,19 @@
         <v>40</v>
       </c>
       <c r="B12" s="1">
-        <v>52.65036294389617</v>
+        <v>53.361738762999998</v>
       </c>
       <c r="C12" s="1">
-        <v>46.133073694296087</v>
+        <v>46.133073693999997</v>
       </c>
       <c r="D12" s="1">
-        <v>55.99416207621482</v>
+        <v>57.868238206000001</v>
       </c>
       <c r="E12" s="1">
-        <v>59.815753867665158</v>
+        <v>59.815753868000002</v>
       </c>
       <c r="F12" s="1">
-        <v>50.245207196049307</v>
+        <v>50.990972098</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1168,19 +1139,19 @@
         <v>73</v>
       </c>
       <c r="B13" s="1">
-        <v>51.180647009644531</v>
+        <v>52.167626785000003</v>
       </c>
       <c r="C13" s="1">
-        <v>34.114933751305777</v>
+        <v>34.114933751000002</v>
       </c>
       <c r="D13" s="1">
-        <v>60.220424948291161</v>
+        <v>59.357275172999998</v>
       </c>
       <c r="E13" s="1">
-        <v>46.910847366711508</v>
+        <v>46.910847367000002</v>
       </c>
       <c r="F13" s="1">
-        <v>67.489349632115747</v>
+        <v>73.718973172999995</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1188,19 +1159,19 @@
         <v>135</v>
       </c>
       <c r="B14" s="1">
-        <v>41.831012475039643</v>
+        <v>43.013714606000001</v>
       </c>
       <c r="C14" s="1">
-        <v>45.127293451162501</v>
+        <v>45.127293451</v>
       </c>
       <c r="D14" s="1">
-        <v>41.960050027156207</v>
+        <v>43.660992909999997</v>
       </c>
       <c r="E14" s="1">
-        <v>20.154428325852979</v>
+        <v>20.154428326000001</v>
       </c>
       <c r="F14" s="1">
-        <v>58.369618831867172</v>
+        <v>61.731715164000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1208,19 +1179,19 @@
         <v>103</v>
       </c>
       <c r="B15" s="1">
-        <v>44.150060509940531</v>
+        <v>46.724632294999999</v>
       </c>
       <c r="C15" s="1">
-        <v>48.712997967457589</v>
+        <v>48.712997967</v>
       </c>
       <c r="D15" s="1">
-        <v>46.738634754801581</v>
+        <v>53.209097217</v>
       </c>
       <c r="E15" s="1">
-        <v>27.928672142815021</v>
+        <v>27.928672143</v>
       </c>
       <c r="F15" s="1">
-        <v>49.644181323498898</v>
+        <v>52.811346557</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1228,19 +1199,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>66.44316632054371</v>
+        <v>69.134359712999995</v>
       </c>
       <c r="C16" s="1">
-        <v>70.226310375044463</v>
+        <v>70.226310374999997</v>
       </c>
       <c r="D16" s="1">
-        <v>68.527486244140562</v>
+        <v>73.818076579000007</v>
       </c>
       <c r="E16" s="1">
-        <v>58.939845080549311</v>
+        <v>58.939845081000001</v>
       </c>
       <c r="F16" s="1">
-        <v>65.145291593391704</v>
+        <v>70.665373052000007</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1248,19 +1219,19 @@
         <v>41</v>
       </c>
       <c r="B17" s="1">
-        <v>52.244732771352133</v>
+        <v>54.587114018000001</v>
       </c>
       <c r="C17" s="1">
-        <v>52.936141282960683</v>
+        <v>52.936141282999998</v>
       </c>
       <c r="D17" s="1">
-        <v>50.284911628935802</v>
+        <v>59.787615774000002</v>
       </c>
       <c r="E17" s="1">
-        <v>51.067188418328897</v>
+        <v>51.067188418000001</v>
       </c>
       <c r="F17" s="1">
-        <v>55.324896070587023</v>
+        <v>52.782746088000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1268,19 +1239,19 @@
         <v>42</v>
       </c>
       <c r="B18" s="1">
-        <v>52.46403854725078</v>
+        <v>52.911187546999997</v>
       </c>
       <c r="C18" s="1">
-        <v>60.808191486881093</v>
+        <v>60.808191487000002</v>
       </c>
       <c r="D18" s="1">
-        <v>49.284606988633961</v>
+        <v>53.176010478999999</v>
       </c>
       <c r="E18" s="1">
-        <v>34.108221194388868</v>
+        <v>34.108221194000002</v>
       </c>
       <c r="F18" s="1">
-        <v>63.072773828592489</v>
+        <v>59.471413589999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,19 +1259,19 @@
         <v>104</v>
       </c>
       <c r="B19" s="1">
-        <v>45.714479984462599</v>
+        <v>46.967737393</v>
       </c>
       <c r="C19" s="1">
-        <v>50.972730363980531</v>
+        <v>50.972730364</v>
       </c>
       <c r="D19" s="1">
-        <v>46.23386958942303</v>
+        <v>44.803783647000003</v>
       </c>
       <c r="E19" s="1">
-        <v>36.173414219182071</v>
+        <v>36.173414219000001</v>
       </c>
       <c r="F19" s="1">
-        <v>46.589085773025623</v>
+        <v>55.000501727</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,19 +1279,19 @@
         <v>105</v>
       </c>
       <c r="B20" s="1">
-        <v>48.216484938768147</v>
+        <v>42.911316900000003</v>
       </c>
       <c r="C20" s="1">
-        <v>36.818576835674811</v>
+        <v>36.818576835999998</v>
       </c>
       <c r="D20" s="1">
-        <v>58.621093232485258</v>
+        <v>50.705640043000002</v>
       </c>
       <c r="E20" s="1">
-        <v>33.026931584707661</v>
+        <v>33.026931585</v>
       </c>
       <c r="F20" s="1">
-        <v>64.895988006892978</v>
+        <v>50.243327594999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1328,19 +1299,19 @@
         <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>55.618107452615092</v>
+        <v>58.895957602999999</v>
       </c>
       <c r="C21" s="1">
-        <v>47.785561822834083</v>
+        <v>47.785561823000002</v>
       </c>
       <c r="D21" s="1">
-        <v>56.2979535415299</v>
+        <v>66.263431311000005</v>
       </c>
       <c r="E21" s="1">
-        <v>52.701083736914249</v>
+        <v>52.701083736999998</v>
       </c>
       <c r="F21" s="1">
-        <v>69.264180479615277</v>
+        <v>70.705214574999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1348,19 +1319,19 @@
         <v>106</v>
       </c>
       <c r="B22" s="1">
-        <v>45.77757713756575</v>
+        <v>46.830696846000002</v>
       </c>
       <c r="C22" s="1">
-        <v>53.045150037692359</v>
+        <v>53.045150038000003</v>
       </c>
       <c r="D22" s="1">
-        <v>57.441393972491547</v>
+        <v>56.799613205999997</v>
       </c>
       <c r="E22" s="1">
-        <v>25.214414066458669</v>
+        <v>25.214414066</v>
       </c>
       <c r="F22" s="1">
-        <v>37.943655606094246</v>
+        <v>44.171925295999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1368,19 +1339,19 @@
         <v>44</v>
       </c>
       <c r="B23" s="1">
-        <v>54.637777638364213</v>
+        <v>57.192790729999999</v>
       </c>
       <c r="C23" s="1">
-        <v>55.205153217148641</v>
+        <v>55.205153217000003</v>
       </c>
       <c r="D23" s="1">
-        <v>53.205136023743052</v>
+        <v>58.356784378</v>
       </c>
       <c r="E23" s="1">
-        <v>43.610883009312317</v>
+        <v>43.610883008999998</v>
       </c>
       <c r="F23" s="1">
-        <v>66.962571321171154</v>
+        <v>72.010164247999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>59.841783519356461</v>
+        <v>62.554209599000004</v>
       </c>
       <c r="C24" s="1">
-        <v>54.900336442265868</v>
+        <v>54.900336441999997</v>
       </c>
       <c r="D24" s="1">
-        <v>55.611509167799319</v>
+        <v>60.635238868999998</v>
       </c>
       <c r="E24" s="1">
-        <v>52.740986313185921</v>
+        <v>52.740986313000001</v>
       </c>
       <c r="F24" s="1">
-        <v>80.700162868498595</v>
+        <v>86.726698713000005</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1408,19 +1379,19 @@
         <v>74</v>
       </c>
       <c r="B25" s="1">
-        <v>48.64749438024478</v>
+        <v>50.594182322999998</v>
       </c>
       <c r="C25" s="1">
-        <v>38.382826803367443</v>
+        <v>38.382826803</v>
       </c>
       <c r="D25" s="1">
-        <v>52.743142308078703</v>
+        <v>50.643540623</v>
       </c>
       <c r="E25" s="1">
-        <v>41.668663385266832</v>
+        <v>41.668663385000002</v>
       </c>
       <c r="F25" s="1">
-        <v>64.879854848787858</v>
+        <v>77.762697087000006</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,19 +1399,19 @@
         <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>59.288736575532553</v>
+        <v>60.421648582000003</v>
       </c>
       <c r="C26" s="1">
-        <v>57.317920155851724</v>
+        <v>57.317920156</v>
       </c>
       <c r="D26" s="1">
-        <v>57.647607329385607</v>
+        <v>61.518299745</v>
       </c>
       <c r="E26" s="1">
-        <v>60.056721915482221</v>
+        <v>60.056721914999997</v>
       </c>
       <c r="F26" s="1">
-        <v>63.938669734324478</v>
+        <v>63.797191144999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,19 +1419,19 @@
         <v>107</v>
       </c>
       <c r="B27" s="1">
-        <v>47.454157267754489</v>
+        <v>49.760892171000002</v>
       </c>
       <c r="C27" s="1">
-        <v>18.867541985693649</v>
+        <v>18.867541985999999</v>
       </c>
       <c r="D27" s="1">
-        <v>59.308536111308172</v>
+        <v>64.469508825000005</v>
       </c>
       <c r="E27" s="1">
-        <v>63.851991029811877</v>
+        <v>63.851991030000001</v>
       </c>
       <c r="F27" s="1">
-        <v>56.154678163457831</v>
+        <v>59.946893608000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,19 +1439,19 @@
         <v>136</v>
       </c>
       <c r="B28" s="1">
-        <v>42.007843009260696</v>
+        <v>44.885178289000002</v>
       </c>
       <c r="C28" s="1">
-        <v>40.025265165966779</v>
+        <v>40.025265165999997</v>
       </c>
       <c r="D28" s="1">
-        <v>39.277143385698061</v>
+        <v>46.531606257</v>
       </c>
       <c r="E28" s="1">
-        <v>23.237670053566909</v>
+        <v>23.237670053999999</v>
       </c>
       <c r="F28" s="1">
-        <v>67.847932165239342</v>
+        <v>71.352914257999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1488,19 +1459,19 @@
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>69.896614067491356</v>
+        <v>72.858767698999998</v>
       </c>
       <c r="C29" s="1">
-        <v>70.960180454934005</v>
+        <v>70.960180455</v>
       </c>
       <c r="D29" s="1">
-        <v>69.448266089905644</v>
+        <v>74.202920414999994</v>
       </c>
       <c r="E29" s="1">
-        <v>60.273931107729283</v>
+        <v>60.273931107999999</v>
       </c>
       <c r="F29" s="1">
-        <v>78.596469412468025</v>
+        <v>86.275256080000005</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1508,19 +1479,19 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>56.867778653256401</v>
+        <v>58.032310342000002</v>
       </c>
       <c r="C30" s="1">
-        <v>53.91019149356314</v>
+        <v>53.910191494000003</v>
       </c>
       <c r="D30" s="1">
-        <v>66.114793429510186</v>
+        <v>74.143030831000004</v>
       </c>
       <c r="E30" s="1">
-        <v>56.861730667265213</v>
+        <v>56.861730667000003</v>
       </c>
       <c r="F30" s="1">
-        <v>47.439685214406822</v>
+        <v>41.219987553000003</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,19 +1499,19 @@
         <v>137</v>
       </c>
       <c r="B31" s="1">
-        <v>36.313678501171609</v>
+        <v>32.131509762</v>
       </c>
       <c r="C31" s="1">
-        <v>21.634152912724829</v>
+        <v>21.634152913000001</v>
       </c>
       <c r="D31" s="1">
-        <v>45.460835875370542</v>
+        <v>44.543770223000003</v>
       </c>
       <c r="E31" s="1">
-        <v>19.20360110475864</v>
+        <v>19.203601105000001</v>
       </c>
       <c r="F31" s="1">
-        <v>61.722308218956343</v>
+        <v>42.187063002999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1548,19 +1519,19 @@
         <v>108</v>
       </c>
       <c r="B32" s="1">
-        <v>47.23528464479967</v>
+        <v>47.459054836</v>
       </c>
       <c r="C32" s="1">
-        <v>53.632439464349559</v>
+        <v>53.632439464000001</v>
       </c>
       <c r="D32" s="1">
-        <v>46.814321589902931</v>
+        <v>48.572468475000001</v>
       </c>
       <c r="E32" s="1">
-        <v>30.675690846299851</v>
+        <v>30.675690845999998</v>
       </c>
       <c r="F32" s="1">
-        <v>54.830590796319747</v>
+        <v>53.312221424000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1568,19 +1539,19 @@
         <v>138</v>
       </c>
       <c r="B33" s="1">
-        <v>36.805286032438779</v>
+        <v>36.972611276000002</v>
       </c>
       <c r="C33" s="1">
-        <v>45.8281202620364</v>
+        <v>45.828120261999999</v>
       </c>
       <c r="D33" s="1">
-        <v>46.117731571560142</v>
+        <v>48.863415234000001</v>
       </c>
       <c r="E33" s="1">
-        <v>14.09493790915754</v>
+        <v>14.094937909</v>
       </c>
       <c r="F33" s="1">
-        <v>32.012714502641543</v>
+        <v>28.730815226000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1588,19 +1559,19 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>70.65517225194705</v>
+        <v>73.623090755999996</v>
       </c>
       <c r="C34" s="1">
-        <v>64.169408260291988</v>
+        <v>64.169408259999997</v>
       </c>
       <c r="D34" s="1">
-        <v>76.971873812061645</v>
+        <v>83.576208750999996</v>
       </c>
       <c r="E34" s="1">
-        <v>66.011651559281816</v>
+        <v>66.011651559000001</v>
       </c>
       <c r="F34" s="1">
-        <v>75.552286591922922</v>
+        <v>80.485376704000004</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1608,19 +1579,19 @@
         <v>109</v>
       </c>
       <c r="B35" s="1">
-        <v>45.397978693526113</v>
+        <v>48.738491437999997</v>
       </c>
       <c r="C35" s="1">
-        <v>47.922039980255697</v>
+        <v>47.922039980000001</v>
       </c>
       <c r="D35" s="1">
-        <v>39.410729366275973</v>
+        <v>49.398514495000001</v>
       </c>
       <c r="E35" s="1">
-        <v>30.276156304782539</v>
+        <v>30.276156305000001</v>
       </c>
       <c r="F35" s="1">
-        <v>65.714583143050561</v>
+        <v>67.435469170000005</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1628,19 +1599,19 @@
         <v>139</v>
       </c>
       <c r="B36" s="1">
-        <v>43.767806213819377</v>
+        <v>44.164831657999997</v>
       </c>
       <c r="C36" s="1">
-        <v>53.20987967638878</v>
+        <v>53.209879676</v>
       </c>
       <c r="D36" s="1">
-        <v>45.53587083161306</v>
+        <v>47.742082339</v>
       </c>
       <c r="E36" s="1">
-        <v>18.39465505160733</v>
+        <v>18.394655052000001</v>
       </c>
       <c r="F36" s="1">
-        <v>52.32575025548681</v>
+        <v>51.001560216000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1648,19 +1619,19 @@
         <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>72.748408946076722</v>
+        <v>77.370511832999995</v>
       </c>
       <c r="C37" s="1">
-        <v>66.182884775609153</v>
+        <v>66.182884775999995</v>
       </c>
       <c r="D37" s="1">
-        <v>68.091128786248106</v>
+        <v>77.781232817000003</v>
       </c>
       <c r="E37" s="1">
-        <v>84.206499896773295</v>
+        <v>84.206499897</v>
       </c>
       <c r="F37" s="1">
-        <v>78.124524490824385</v>
+        <v>86.699882880000004</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1668,19 +1639,19 @@
         <v>110</v>
       </c>
       <c r="B38" s="1">
-        <v>47.112555929545472</v>
+        <v>49.393158733</v>
       </c>
       <c r="C38" s="1">
-        <v>51.17292921791875</v>
+        <v>51.172929218</v>
       </c>
       <c r="D38" s="1">
-        <v>46.423508321390521</v>
+        <v>53.119497428000003</v>
       </c>
       <c r="E38" s="1">
-        <v>34.333020427117553</v>
+        <v>34.333020427000001</v>
       </c>
       <c r="F38" s="1">
-        <v>54.835102911645897</v>
+        <v>56.194133270999998</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1688,19 +1659,19 @@
         <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>63.979933292987013</v>
+        <v>66.849688196000002</v>
       </c>
       <c r="C39" s="1">
-        <v>64.324916042043981</v>
+        <v>64.324916041999998</v>
       </c>
       <c r="D39" s="1">
-        <v>59.364915834692283</v>
+        <v>65.515770704999994</v>
       </c>
       <c r="E39" s="1">
-        <v>62.130627930247783</v>
+        <v>62.130627930000003</v>
       </c>
       <c r="F39" s="1">
-        <v>72.234290719582944</v>
+        <v>77.356782926999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1708,19 +1679,19 @@
         <v>75</v>
       </c>
       <c r="B40" s="1">
-        <v>49.425462483960871</v>
+        <v>47.673484365999997</v>
       </c>
       <c r="C40" s="1">
-        <v>48.884518769537287</v>
+        <v>48.88451877</v>
       </c>
       <c r="D40" s="1">
-        <v>46.974821947106058</v>
+        <v>40.095114105999997</v>
       </c>
       <c r="E40" s="1">
-        <v>38.39073435053357</v>
+        <v>38.390734350999999</v>
       </c>
       <c r="F40" s="1">
-        <v>64.94756699430576</v>
+        <v>66.507238165000004</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1728,19 +1699,19 @@
         <v>111</v>
       </c>
       <c r="B41" s="1">
-        <v>46.569296168675827</v>
+        <v>46.951813522000002</v>
       </c>
       <c r="C41" s="1">
-        <v>45.572952714492352</v>
+        <v>45.572952714000003</v>
       </c>
       <c r="D41" s="1">
-        <v>46.292311107558639</v>
+        <v>49.211037906000001</v>
       </c>
       <c r="E41" s="1">
-        <v>46.3213528921886</v>
+        <v>46.321352892</v>
       </c>
       <c r="F41" s="1">
-        <v>48.727232218114047</v>
+        <v>46.261728787000003</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1748,19 +1719,19 @@
         <v>46</v>
       </c>
       <c r="B42" s="1">
-        <v>54.856137444406542</v>
+        <v>56.115682620000001</v>
       </c>
       <c r="C42" s="1">
-        <v>52.705683542506883</v>
+        <v>52.705683542999999</v>
       </c>
       <c r="D42" s="1">
-        <v>50.594034667691517</v>
+        <v>50.466125906000002</v>
       </c>
       <c r="E42" s="1">
-        <v>40.943411083324037</v>
+        <v>40.943411083000001</v>
       </c>
       <c r="F42" s="1">
-        <v>78.387698823411029</v>
+        <v>84.877287842000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1768,19 +1739,19 @@
         <v>14</v>
       </c>
       <c r="B43" s="1">
-        <v>65.402043161486176</v>
+        <v>69.213628366999998</v>
       </c>
       <c r="C43" s="1">
-        <v>62.997830795678077</v>
+        <v>62.997830796000002</v>
       </c>
       <c r="D43" s="1">
-        <v>61.27637186538545</v>
+        <v>71.305191570999995</v>
       </c>
       <c r="E43" s="1">
-        <v>58.197922371768684</v>
+        <v>58.197922372000001</v>
       </c>
       <c r="F43" s="1">
-        <v>82.400989444066909</v>
+        <v>86.415685913000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1788,19 +1759,19 @@
         <v>140</v>
       </c>
       <c r="B44" s="1">
-        <v>44.62545082885557</v>
+        <v>44.361872021000003</v>
       </c>
       <c r="C44" s="1">
-        <v>43.781651301215028</v>
+        <v>43.781651300999997</v>
       </c>
       <c r="D44" s="1">
-        <v>48.740517609897147</v>
+        <v>50.948952505000001</v>
       </c>
       <c r="E44" s="1">
-        <v>31.895773280931682</v>
+        <v>31.895773281</v>
       </c>
       <c r="F44" s="1">
-        <v>52.448227496677902</v>
+        <v>47.817681112999999</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1808,19 +1779,19 @@
         <v>15</v>
       </c>
       <c r="B45" s="1">
-        <v>62.546810091548387</v>
+        <v>63.925847615000002</v>
       </c>
       <c r="C45" s="1">
-        <v>53.284680303434889</v>
+        <v>53.284680303000002</v>
       </c>
       <c r="D45" s="1">
-        <v>67.770220494305974</v>
+        <v>72.310693189999995</v>
       </c>
       <c r="E45" s="1">
-        <v>69.931787735186703</v>
+        <v>69.931787735</v>
       </c>
       <c r="F45" s="1">
-        <v>61.219911525943971</v>
+        <v>61.304390101000003</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1828,19 +1799,19 @@
         <v>112</v>
       </c>
       <c r="B46" s="1">
-        <v>45.798101132975049</v>
+        <v>48.461938834999998</v>
       </c>
       <c r="C46" s="1">
-        <v>31.929801055819631</v>
+        <v>31.929801055999999</v>
       </c>
       <c r="D46" s="1">
-        <v>49.254016243882923</v>
+        <v>53.470533869999997</v>
       </c>
       <c r="E46" s="1">
-        <v>45.299763616904848</v>
+        <v>45.299763617000004</v>
       </c>
       <c r="F46" s="1">
-        <v>61.915016098416601</v>
+        <v>68.909428169999998</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1848,19 +1819,19 @@
         <v>76</v>
       </c>
       <c r="B47" s="1">
-        <v>50.782825665978692</v>
+        <v>47.179890579999999</v>
       </c>
       <c r="C47" s="1">
-        <v>41.990991633781732</v>
+        <v>41.990991633999997</v>
       </c>
       <c r="D47" s="1">
-        <v>59.299256904981178</v>
+        <v>49.121161000999997</v>
       </c>
       <c r="E47" s="1">
-        <v>43.093893836757417</v>
+        <v>43.093893837000003</v>
       </c>
       <c r="F47" s="1">
-        <v>58.884861684991648</v>
+        <v>56.137330112999997</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1868,19 +1839,19 @@
         <v>113</v>
       </c>
       <c r="B48" s="1">
-        <v>46.70122321315344</v>
+        <v>46.456982623000002</v>
       </c>
       <c r="C48" s="1">
-        <v>37.569165727592562</v>
+        <v>37.569165728000002</v>
       </c>
       <c r="D48" s="1">
-        <v>57.664650614571457</v>
+        <v>59.190561912</v>
       </c>
       <c r="E48" s="1">
-        <v>42.683330539531433</v>
+        <v>42.68333054</v>
       </c>
       <c r="F48" s="1">
-        <v>47.972061012989727</v>
+        <v>44.461991114999996</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1888,19 +1859,19 @@
         <v>16</v>
       </c>
       <c r="B49" s="1">
-        <v>59.52615636777702</v>
+        <v>61.873147451000001</v>
       </c>
       <c r="C49" s="1">
-        <v>59.005281420247009</v>
+        <v>59.005281420000003</v>
       </c>
       <c r="D49" s="1">
-        <v>60.267094519532861</v>
+        <v>64.830726854999995</v>
       </c>
       <c r="E49" s="1">
-        <v>48.408701503474447</v>
+        <v>48.408701503000003</v>
       </c>
       <c r="F49" s="1">
-        <v>70.313516425740815</v>
+        <v>75.203023336000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1908,19 +1879,19 @@
         <v>114</v>
       </c>
       <c r="B50" s="1">
-        <v>45.875949818862082</v>
+        <v>47.714178275999998</v>
       </c>
       <c r="C50" s="1">
-        <v>46.185583376936172</v>
+        <v>46.185583377</v>
       </c>
       <c r="D50" s="1">
-        <v>45.532382300400307</v>
+        <v>51.580656404000003</v>
       </c>
       <c r="E50" s="1">
-        <v>35.290934740779612</v>
+        <v>35.290934741000001</v>
       </c>
       <c r="F50" s="1">
-        <v>56.511865837526067</v>
+        <v>56.630596969000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1928,19 +1899,19 @@
         <v>115</v>
       </c>
       <c r="B51" s="1">
-        <v>46.814493393673217</v>
+        <v>46.272036880000002</v>
       </c>
       <c r="C51" s="1">
-        <v>47.430238122346331</v>
+        <v>47.430238121999999</v>
       </c>
       <c r="D51" s="1">
-        <v>44.406185621052877</v>
+        <v>50.843872976</v>
       </c>
       <c r="E51" s="1">
-        <v>34.239130434782609</v>
+        <v>34.239130435</v>
       </c>
       <c r="F51" s="1">
-        <v>62.078700918484671</v>
+        <v>49.709887319000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1948,19 +1919,19 @@
         <v>17</v>
       </c>
       <c r="B52" s="1">
-        <v>60.197157657404198</v>
+        <v>62.861212491000003</v>
       </c>
       <c r="C52" s="1">
-        <v>62.875867918586223</v>
+        <v>62.875867919000001</v>
       </c>
       <c r="D52" s="1">
-        <v>53.951087722660169</v>
+        <v>58.804117679000001</v>
       </c>
       <c r="E52" s="1">
-        <v>46.726189073019412</v>
+        <v>46.726189073</v>
       </c>
       <c r="F52" s="1">
-        <v>79.019165752132082</v>
+        <v>85.059894987000007</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1968,19 +1939,19 @@
         <v>77</v>
       </c>
       <c r="B53" s="1">
-        <v>49.070871358366027</v>
+        <v>49.468094809999997</v>
       </c>
       <c r="C53" s="1">
-        <v>42.133369247690851</v>
+        <v>42.133369248000001</v>
       </c>
       <c r="D53" s="1">
-        <v>50.644214364011077</v>
+        <v>50.123420735000003</v>
       </c>
       <c r="E53" s="1">
-        <v>41.446431162834948</v>
+        <v>41.446431163</v>
       </c>
       <c r="F53" s="1">
-        <v>64.741550211442302</v>
+        <v>67.508857914000004</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1988,19 +1959,19 @@
         <v>141</v>
       </c>
       <c r="B54" s="1">
-        <v>42.799007153688351</v>
+        <v>42.233611750000001</v>
       </c>
       <c r="C54" s="1">
-        <v>38.346664058823379</v>
+        <v>38.346664058999998</v>
       </c>
       <c r="D54" s="1">
-        <v>50.315472972568948</v>
+        <v>48.560216871000002</v>
       </c>
       <c r="E54" s="1">
-        <v>24.177083329964631</v>
+        <v>24.177083329999999</v>
       </c>
       <c r="F54" s="1">
-        <v>56.8247468913886</v>
+        <v>56.630654026999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2008,19 +1979,19 @@
         <v>78</v>
       </c>
       <c r="B55" s="1">
-        <v>51.040843160961302</v>
+        <v>51.796779753000003</v>
       </c>
       <c r="C55" s="1">
-        <v>50.016418086355984</v>
+        <v>50.016418086000002</v>
       </c>
       <c r="D55" s="1">
-        <v>54.203863469825933</v>
+        <v>54.033424639000003</v>
       </c>
       <c r="E55" s="1">
-        <v>37.359810705405003</v>
+        <v>37.359810705000001</v>
       </c>
       <c r="F55" s="1">
-        <v>61.513982765128631</v>
+        <v>65.549323973</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2028,19 +1999,19 @@
         <v>18</v>
       </c>
       <c r="B56" s="1">
-        <v>60.021936416696867</v>
+        <v>60.355283292000003</v>
       </c>
       <c r="C56" s="1">
-        <v>58.12589466793105</v>
+        <v>58.125894668000001</v>
       </c>
       <c r="D56" s="1">
-        <v>59.603603013944941</v>
+        <v>61.696207352000002</v>
       </c>
       <c r="E56" s="1">
-        <v>52.594336274696531</v>
+        <v>52.594336275000003</v>
       </c>
       <c r="F56" s="1">
-        <v>70.921099285973895</v>
+        <v>69.448927155999996</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2048,19 +2019,19 @@
         <v>19</v>
       </c>
       <c r="B57" s="1">
-        <v>77.443005596425763</v>
+        <v>80.790044398999996</v>
       </c>
       <c r="C57" s="1">
-        <v>60.748569948649227</v>
+        <v>60.748569949</v>
       </c>
       <c r="D57" s="1">
-        <v>82.295715335926516</v>
+        <v>88.076827644000005</v>
       </c>
       <c r="E57" s="1">
-        <v>90.161684917043132</v>
+        <v>90.161684917000002</v>
       </c>
       <c r="F57" s="1">
-        <v>82.486915138222088</v>
+        <v>90.550440687999995</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2068,19 +2039,19 @@
         <v>47</v>
       </c>
       <c r="B58" s="1">
-        <v>56.321714881910971</v>
+        <v>58.926854452999997</v>
       </c>
       <c r="C58" s="1">
-        <v>49.212607072055839</v>
+        <v>49.212607071999997</v>
       </c>
       <c r="D58" s="1">
-        <v>52.501905264861158</v>
+        <v>59.944736286999998</v>
       </c>
       <c r="E58" s="1">
-        <v>63.143641929805057</v>
+        <v>63.143641930000001</v>
       </c>
       <c r="F58" s="1">
-        <v>65.893163974374275</v>
+        <v>67.754615298999994</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2088,19 +2059,19 @@
         <v>20</v>
       </c>
       <c r="B59" s="1">
-        <v>79.501729757382563</v>
+        <v>83.694250952999994</v>
       </c>
       <c r="C59" s="1">
-        <v>76.720048719748974</v>
+        <v>76.720048719999994</v>
       </c>
       <c r="D59" s="1">
-        <v>85.087944614013409</v>
+        <v>93.077680452999999</v>
       </c>
       <c r="E59" s="1">
-        <v>70.624262356988368</v>
+        <v>70.624262357000006</v>
       </c>
       <c r="F59" s="1">
-        <v>84.172396429280866</v>
+        <v>93.150398648000007</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2108,19 +2079,19 @@
         <v>142</v>
       </c>
       <c r="B60" s="1">
-        <v>45.107419415972977</v>
+        <v>47.904342684</v>
       </c>
       <c r="C60" s="1">
-        <v>52.382147450760932</v>
+        <v>52.382147451000002</v>
       </c>
       <c r="D60" s="1">
-        <v>43.980298663740989</v>
+        <v>50.977880808000002</v>
       </c>
       <c r="E60" s="1">
-        <v>26.852560687545839</v>
+        <v>26.852560688000001</v>
       </c>
       <c r="F60" s="1">
-        <v>54.140867220566243</v>
+        <v>57.629110343000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2128,19 +2099,19 @@
         <v>21</v>
       </c>
       <c r="B61" s="1">
-        <v>68.70927008174813</v>
+        <v>71.043347140999998</v>
       </c>
       <c r="C61" s="1">
-        <v>60.650005894312031</v>
+        <v>60.650005894000003</v>
       </c>
       <c r="D61" s="1">
-        <v>75.485758087424315</v>
+        <v>82.316221178999996</v>
       </c>
       <c r="E61" s="1">
-        <v>75.044837950412685</v>
+        <v>75.044837950000002</v>
       </c>
       <c r="F61" s="1">
-        <v>64.297866485723461</v>
+        <v>65.722557144999996</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2148,19 +2119,19 @@
         <v>143</v>
       </c>
       <c r="B62" s="1">
-        <v>42.69296733532353</v>
+        <v>42.340385879999999</v>
       </c>
       <c r="C62" s="1">
-        <v>50.347932193706413</v>
+        <v>50.347932194000002</v>
       </c>
       <c r="D62" s="1">
-        <v>20.579810314145021</v>
+        <v>19.051400641000001</v>
       </c>
       <c r="E62" s="1">
-        <v>38.009375590420333</v>
+        <v>38.009375589999998</v>
       </c>
       <c r="F62" s="1">
-        <v>69.063847324420152</v>
+        <v>69.593554556000001</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2168,19 +2139,19 @@
         <v>48</v>
       </c>
       <c r="B63" s="1">
-        <v>58.453232381422737</v>
+        <v>54.869849186000003</v>
       </c>
       <c r="C63" s="1">
-        <v>47.364566539328059</v>
+        <v>47.364566539000002</v>
       </c>
       <c r="D63" s="1">
-        <v>65.549425818988766</v>
+        <v>53.491724855999998</v>
       </c>
       <c r="E63" s="1">
-        <v>41.174806067134583</v>
+        <v>41.174806066999999</v>
       </c>
       <c r="F63" s="1">
-        <v>81.72036730250386</v>
+        <v>81.890002768000002</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2188,19 +2159,19 @@
         <v>22</v>
       </c>
       <c r="B64" s="1">
-        <v>58.070025798117904</v>
+        <v>60.049328758999998</v>
       </c>
       <c r="C64" s="1">
-        <v>55.910434667257533</v>
+        <v>55.910434666999997</v>
       </c>
       <c r="D64" s="1">
-        <v>65.665011796911401</v>
+        <v>70.700004731999996</v>
       </c>
       <c r="E64" s="1">
-        <v>48.074686134014257</v>
+        <v>48.074686133999997</v>
       </c>
       <c r="F64" s="1">
-        <v>59.91227316032186</v>
+        <v>62.256298565000002</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2208,19 +2179,19 @@
         <v>49</v>
       </c>
       <c r="B65" s="1">
-        <v>52.804433498887597</v>
+        <v>55.511434747000003</v>
       </c>
       <c r="C65" s="1">
-        <v>56.362819410842093</v>
+        <v>56.362819410999997</v>
       </c>
       <c r="D65" s="1">
-        <v>47.542648204703291</v>
+        <v>53.660187016999998</v>
       </c>
       <c r="E65" s="1">
-        <v>40.52297698888259</v>
+        <v>40.522976989</v>
       </c>
       <c r="F65" s="1">
-        <v>67.640989082237326</v>
+        <v>71.999687102999999</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2228,19 +2199,19 @@
         <v>116</v>
       </c>
       <c r="B66" s="1">
-        <v>48.602914595520048</v>
+        <v>49.217643221000003</v>
       </c>
       <c r="C66" s="1">
-        <v>50.100190888105459</v>
+        <v>50.100190888</v>
       </c>
       <c r="D66" s="1">
-        <v>48.744840655571657</v>
+        <v>53.417475183999997</v>
       </c>
       <c r="E66" s="1">
-        <v>35.636548566366507</v>
+        <v>35.636548566000002</v>
       </c>
       <c r="F66" s="1">
-        <v>59.110477095718053</v>
+        <v>55.175168433000003</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2248,19 +2219,19 @@
         <v>50</v>
       </c>
       <c r="B67" s="1">
-        <v>56.118682993352841</v>
+        <v>54.844797188000001</v>
       </c>
       <c r="C67" s="1">
-        <v>52.834000746299402</v>
+        <v>52.834000746000001</v>
       </c>
       <c r="D67" s="1">
-        <v>65.623419716204197</v>
+        <v>62.136392735999998</v>
       </c>
       <c r="E67" s="1">
-        <v>50.977160402494107</v>
+        <v>50.977160402000003</v>
       </c>
       <c r="F67" s="1">
-        <v>51.93012387051472</v>
+        <v>50.791235313000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2268,19 +2239,19 @@
         <v>23</v>
       </c>
       <c r="B68" s="1">
-        <v>64.053804652323947</v>
+        <v>66.578101325000006</v>
       </c>
       <c r="C68" s="1">
-        <v>65.403306129142393</v>
+        <v>65.403306129000001</v>
       </c>
       <c r="D68" s="1">
-        <v>64.484554876058453</v>
+        <v>71.531761023000001</v>
       </c>
       <c r="E68" s="1">
-        <v>57.491864649012108</v>
+        <v>57.491864649</v>
       </c>
       <c r="F68" s="1">
-        <v>67.945367104806337</v>
+        <v>69.996041250000005</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2288,19 +2259,19 @@
         <v>51</v>
       </c>
       <c r="B69" s="1">
-        <v>55.334898878551243</v>
+        <v>56.766815553000001</v>
       </c>
       <c r="C69" s="1">
-        <v>51.416584903249692</v>
+        <v>51.416584903</v>
       </c>
       <c r="D69" s="1">
-        <v>54.826122487638237</v>
+        <v>58.306310134</v>
       </c>
       <c r="E69" s="1">
-        <v>45.522193021140403</v>
+        <v>45.522193021</v>
       </c>
       <c r="F69" s="1">
-        <v>71.788240285283933</v>
+        <v>73.727542189999994</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2308,19 +2279,19 @@
         <v>24</v>
       </c>
       <c r="B70" s="1">
-        <v>59.560075042045867</v>
+        <v>62.235226896</v>
       </c>
       <c r="C70" s="1">
-        <v>64.46601001666167</v>
+        <v>64.466010017000002</v>
       </c>
       <c r="D70" s="1">
-        <v>52.064617161320093</v>
+        <v>58.794695853999997</v>
       </c>
       <c r="E70" s="1">
-        <v>51.408499418486201</v>
+        <v>51.408499417999998</v>
       </c>
       <c r="F70" s="1">
-        <v>71.595935024770455</v>
+        <v>74.876576256000007</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2328,19 +2299,19 @@
         <v>144</v>
       </c>
       <c r="B71" s="1">
-        <v>42.447929058637897</v>
+        <v>36.548212284000002</v>
       </c>
       <c r="C71" s="1">
-        <v>26.716448686991829</v>
+        <v>26.716448687</v>
       </c>
       <c r="D71" s="1">
-        <v>58.40608224148508</v>
+        <v>43.848211026000001</v>
       </c>
       <c r="E71" s="1">
-        <v>50.598622989954798</v>
+        <v>50.598622990000003</v>
       </c>
       <c r="F71" s="1">
-        <v>33.957225910519348</v>
+        <v>26.295448858</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2348,19 +2319,19 @@
         <v>52</v>
       </c>
       <c r="B72" s="1">
-        <v>54.547415107899504</v>
+        <v>55.451127131</v>
       </c>
       <c r="C72" s="1">
-        <v>49.792122653399751</v>
+        <v>49.792122653</v>
       </c>
       <c r="D72" s="1">
-        <v>53.454684602296219</v>
+        <v>56.790689884999999</v>
       </c>
       <c r="E72" s="1">
-        <v>40.669534213697787</v>
+        <v>40.669534214000002</v>
       </c>
       <c r="F72" s="1">
-        <v>77.197330442255748</v>
+        <v>76.711882634999995</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2368,19 +2339,19 @@
         <v>25</v>
       </c>
       <c r="B73" s="1">
-        <v>66.441149592252884</v>
+        <v>69.599045180000005</v>
       </c>
       <c r="C73" s="1">
-        <v>57.50849532919819</v>
+        <v>57.508495328999999</v>
       </c>
       <c r="D73" s="1">
-        <v>65.661245066966544</v>
+        <v>71.777009199000005</v>
       </c>
       <c r="E73" s="1">
-        <v>67.922953002996721</v>
+        <v>67.922953003000003</v>
       </c>
       <c r="F73" s="1">
-        <v>79.528184364020646</v>
+        <v>86.144016106999999</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2388,19 +2359,19 @@
         <v>53</v>
       </c>
       <c r="B74" s="1">
-        <v>56.120185339206579</v>
+        <v>55.549765057999998</v>
       </c>
       <c r="C74" s="1">
-        <v>53.170986630892948</v>
+        <v>53.170986630999998</v>
       </c>
       <c r="D74" s="1">
-        <v>57.250515637700538</v>
+        <v>57.698643871999998</v>
       </c>
       <c r="E74" s="1">
-        <v>51.940303534271379</v>
+        <v>51.940303534000002</v>
       </c>
       <c r="F74" s="1">
-        <v>63.028369758871271</v>
+        <v>59.504075999000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2408,19 +2379,19 @@
         <v>79</v>
       </c>
       <c r="B75" s="1">
-        <v>49.503696686498436</v>
+        <v>48.661269619000002</v>
       </c>
       <c r="C75" s="1">
-        <v>45.289860693603202</v>
+        <v>45.289860693999998</v>
       </c>
       <c r="D75" s="1">
-        <v>47.135258786260927</v>
+        <v>45.610211302000003</v>
       </c>
       <c r="E75" s="1">
-        <v>30.041157166548381</v>
+        <v>30.041157167000001</v>
       </c>
       <c r="F75" s="1">
-        <v>78.839647046147661</v>
+        <v>76.915082937999998</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2428,19 +2399,19 @@
         <v>26</v>
       </c>
       <c r="B76" s="1">
-        <v>61.482025573641998</v>
+        <v>64.535055612999997</v>
       </c>
       <c r="C76" s="1">
-        <v>60.293561108916492</v>
+        <v>60.293561109000002</v>
       </c>
       <c r="D76" s="1">
-        <v>60.129234161848728</v>
+        <v>66.472973581000005</v>
       </c>
       <c r="E76" s="1">
-        <v>55.070267124200178</v>
+        <v>55.070267123999997</v>
       </c>
       <c r="F76" s="1">
-        <v>71.705667837861995</v>
+        <v>77.455208908000003</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,19 +2419,19 @@
         <v>27</v>
       </c>
       <c r="B77" s="1">
-        <v>58.413601359758637</v>
+        <v>61.299869774000001</v>
       </c>
       <c r="C77" s="1">
-        <v>53.696620232767323</v>
+        <v>53.696620232999997</v>
       </c>
       <c r="D77" s="1">
-        <v>60.159138320383029</v>
+        <v>65.990956135999994</v>
       </c>
       <c r="E77" s="1">
-        <v>53.032009409101313</v>
+        <v>53.032009408999997</v>
       </c>
       <c r="F77" s="1">
-        <v>68.252359559966365</v>
+        <v>73.935974905999998</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2468,19 +2439,19 @@
         <v>80</v>
       </c>
       <c r="B78" s="1">
-        <v>48.928495051959842</v>
+        <v>47.501940527000002</v>
       </c>
       <c r="C78" s="1">
-        <v>37.017916817346531</v>
+        <v>37.017916817</v>
       </c>
       <c r="D78" s="1">
-        <v>72.019061421514849</v>
+        <v>65.061553814999996</v>
       </c>
       <c r="E78" s="1">
-        <v>29.283787862425608</v>
+        <v>29.283787862000001</v>
       </c>
       <c r="F78" s="1">
-        <v>51.803220039081467</v>
+        <v>55.106708826000002</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2488,19 +2459,19 @@
         <v>28</v>
       </c>
       <c r="B79" s="1">
-        <v>63.682896828522203</v>
+        <v>66.283009747999998</v>
       </c>
       <c r="C79" s="1">
-        <v>68.690789370358956</v>
+        <v>68.690789370000005</v>
       </c>
       <c r="D79" s="1">
-        <v>56.725092583891723</v>
+        <v>63.593800361</v>
       </c>
       <c r="E79" s="1">
-        <v>52.977864542871622</v>
+        <v>52.977864543000003</v>
       </c>
       <c r="F79" s="1">
-        <v>77.312796668363347</v>
+        <v>80.010299598000003</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2508,19 +2479,19 @@
         <v>81</v>
       </c>
       <c r="B80" s="1">
-        <v>48.911371502490908</v>
+        <v>50.098669260999998</v>
       </c>
       <c r="C80" s="1">
-        <v>54.660534692221759</v>
+        <v>54.660534691999999</v>
       </c>
       <c r="D80" s="1">
-        <v>40.249125474679623</v>
+        <v>44.522886554999999</v>
       </c>
       <c r="E80" s="1">
-        <v>41.448649116833437</v>
+        <v>41.448649117000002</v>
       </c>
       <c r="F80" s="1">
-        <v>60.743718145269071</v>
+        <v>60.269565315000001</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2528,19 +2499,19 @@
         <v>82</v>
       </c>
       <c r="B81" s="1">
-        <v>49.758298473313559</v>
+        <v>49.555995848000002</v>
       </c>
       <c r="C81" s="1">
-        <v>43.802496493988372</v>
+        <v>43.802496494000003</v>
       </c>
       <c r="D81" s="1">
-        <v>53.415613383719688</v>
+        <v>51.252869113000003</v>
       </c>
       <c r="E81" s="1">
-        <v>25.476654161760319</v>
+        <v>25.476654161999999</v>
       </c>
       <c r="F81" s="1">
-        <v>77.487673388245369</v>
+        <v>79.720276669</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2548,19 +2519,19 @@
         <v>145</v>
       </c>
       <c r="B82" s="1">
-        <v>43.728947888642679</v>
+        <v>43.287580802999997</v>
       </c>
       <c r="C82" s="1">
-        <v>40.224078150817462</v>
+        <v>40.224078151000001</v>
       </c>
       <c r="D82" s="1">
-        <v>46.706844695981353</v>
+        <v>47.345285115999999</v>
       </c>
       <c r="E82" s="1">
-        <v>25.979107712506408</v>
+        <v>25.979107713000001</v>
       </c>
       <c r="F82" s="1">
-        <v>62.269247460508751</v>
+        <v>59.104751405000002</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2568,19 +2539,19 @@
         <v>146</v>
       </c>
       <c r="B83" s="1">
-        <v>40.613365005192072</v>
+        <v>40.364330582000001</v>
       </c>
       <c r="C83" s="1">
-        <v>43.92629827065354</v>
+        <v>43.926298271</v>
       </c>
       <c r="D83" s="1">
-        <v>33.407631412115933</v>
+        <v>38.383884496</v>
       </c>
       <c r="E83" s="1">
-        <v>31.777220581137851</v>
+        <v>31.777220581000002</v>
       </c>
       <c r="F83" s="1">
-        <v>55.288709920668268</v>
+        <v>46.579158178999997</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2588,19 +2559,19 @@
         <v>117</v>
       </c>
       <c r="B84" s="1">
-        <v>46.575339817833253</v>
+        <v>47.210258682000003</v>
       </c>
       <c r="C84" s="1">
-        <v>43.021384297681657</v>
+        <v>43.021384298000001</v>
       </c>
       <c r="D84" s="1">
-        <v>44.952981467018986</v>
+        <v>46.171599606999997</v>
       </c>
       <c r="E84" s="1">
-        <v>37.396137328339407</v>
+        <v>37.396137328000002</v>
       </c>
       <c r="F84" s="1">
-        <v>63.519013113775848</v>
+        <v>64.865680224000002</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2608,19 +2579,19 @@
         <v>29</v>
       </c>
       <c r="B85" s="1">
-        <v>58.727619505190553</v>
+        <v>59.851181861000001</v>
       </c>
       <c r="C85" s="1">
-        <v>56.650464546289257</v>
+        <v>56.650464546000002</v>
       </c>
       <c r="D85" s="1">
-        <v>57.561526392205771</v>
+        <v>57.148359137</v>
       </c>
       <c r="E85" s="1">
-        <v>51.356787186752392</v>
+        <v>51.356787187000002</v>
       </c>
       <c r="F85" s="1">
-        <v>70.963323931457836</v>
+        <v>77.200886591</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2628,19 +2599,19 @@
         <v>118</v>
       </c>
       <c r="B86" s="1">
-        <v>46.186607724564162</v>
+        <v>48.747680609</v>
       </c>
       <c r="C86" s="1">
-        <v>47.659269671865033</v>
+        <v>47.659269672000001</v>
       </c>
       <c r="D86" s="1">
-        <v>44.289340104572467</v>
+        <v>51.917474812999998</v>
       </c>
       <c r="E86" s="1">
-        <v>35.400641264627069</v>
+        <v>35.400641264999997</v>
       </c>
       <c r="F86" s="1">
-        <v>57.609482693537522</v>
+        <v>58.972645053000001</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2648,19 +2619,19 @@
         <v>147</v>
       </c>
       <c r="B87" s="1">
-        <v>43.378916106920023</v>
+        <v>46.588596496000001</v>
       </c>
       <c r="C87" s="1">
-        <v>44.748746644982617</v>
+        <v>44.748746644999997</v>
       </c>
       <c r="D87" s="1">
-        <v>42.006303436630382</v>
+        <v>51.372688744000001</v>
       </c>
       <c r="E87" s="1">
-        <v>31.94595457279372</v>
+        <v>31.945954573000002</v>
       </c>
       <c r="F87" s="1">
-        <v>54.816050839386882</v>
+        <v>56.814874822</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2668,19 +2639,19 @@
         <v>83</v>
       </c>
       <c r="B88" s="1">
-        <v>50.153287589315283</v>
+        <v>51.501097127999998</v>
       </c>
       <c r="C88" s="1">
-        <v>42.461364899164273</v>
+        <v>42.461364899000003</v>
       </c>
       <c r="D88" s="1">
-        <v>51.965328984701898</v>
+        <v>53.884537412999997</v>
       </c>
       <c r="E88" s="1">
-        <v>52.52588800427278</v>
+        <v>52.525888004000002</v>
       </c>
       <c r="F88" s="1">
-        <v>56.600509116504369</v>
+        <v>60.460744167999998</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2688,19 +2659,19 @@
         <v>30</v>
       </c>
       <c r="B89" s="1">
-        <v>62.633777428074588</v>
+        <v>67.013897614000001</v>
       </c>
       <c r="C89" s="1">
-        <v>58.550386256916958</v>
+        <v>58.550386257</v>
       </c>
       <c r="D89" s="1">
-        <v>60.100861940015172</v>
+        <v>68.748103917999998</v>
       </c>
       <c r="E89" s="1">
-        <v>61.321964389394161</v>
+        <v>61.321964389000001</v>
       </c>
       <c r="F89" s="1">
-        <v>73.870050455580596</v>
+        <v>82.799788421000002</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2708,19 +2679,19 @@
         <v>84</v>
       </c>
       <c r="B90" s="1">
-        <v>48.733780214870649</v>
+        <v>50.510312626000001</v>
       </c>
       <c r="C90" s="1">
-        <v>42.391261856407162</v>
+        <v>42.391261856</v>
       </c>
       <c r="D90" s="1">
-        <v>52.411529124449281</v>
+        <v>58.703325511999999</v>
       </c>
       <c r="E90" s="1">
-        <v>46.016155352074698</v>
+        <v>46.016155351999998</v>
       </c>
       <c r="F90" s="1">
-        <v>55.44855925099391</v>
+        <v>54.893526723000001</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,19 +2699,19 @@
         <v>119</v>
       </c>
       <c r="B91" s="1">
-        <v>48.432120211008247</v>
+        <v>48.505369879</v>
       </c>
       <c r="C91" s="1">
-        <v>46.619112838330658</v>
+        <v>46.619112837999999</v>
       </c>
       <c r="D91" s="1">
-        <v>38.238521462493637</v>
+        <v>45.651854720999999</v>
       </c>
       <c r="E91" s="1">
-        <v>49.302136142965992</v>
+        <v>49.302136142999998</v>
       </c>
       <c r="F91" s="1">
-        <v>65.572013460838775</v>
+        <v>54.818261911999997</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2748,19 +2719,19 @@
         <v>54</v>
       </c>
       <c r="B92" s="1">
-        <v>54.713752567128282</v>
+        <v>56.408682251000002</v>
       </c>
       <c r="C92" s="1">
-        <v>64.974009831083947</v>
+        <v>64.974009831000004</v>
       </c>
       <c r="D92" s="1">
-        <v>48.816901822512811</v>
+        <v>53.775951788999997</v>
       </c>
       <c r="E92" s="1">
-        <v>42.44215657635764</v>
+        <v>42.442156576000002</v>
       </c>
       <c r="F92" s="1">
-        <v>60.440238778888663</v>
+        <v>61.476312247000003</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2768,19 +2739,19 @@
         <v>55</v>
       </c>
       <c r="B93" s="1">
-        <v>52.191891736013758</v>
+        <v>53.944652646000002</v>
       </c>
       <c r="C93" s="1">
-        <v>50.089421424721458</v>
+        <v>50.089421424999998</v>
       </c>
       <c r="D93" s="1">
-        <v>60.650596183139797</v>
+        <v>65.684274995999999</v>
       </c>
       <c r="E93" s="1">
-        <v>41.991744641522182</v>
+        <v>41.991744642</v>
       </c>
       <c r="F93" s="1">
-        <v>52.857687626754753</v>
+        <v>54.070973956000003</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2788,19 +2759,19 @@
         <v>31</v>
       </c>
       <c r="B94" s="1">
-        <v>59.53594683309008</v>
+        <v>62.068727944999999</v>
       </c>
       <c r="C94" s="1">
-        <v>60.478379277489559</v>
+        <v>60.478379277000002</v>
       </c>
       <c r="D94" s="1">
-        <v>61.679923080379972</v>
+        <v>68.081328994000003</v>
       </c>
       <c r="E94" s="1">
-        <v>51.624760380651431</v>
+        <v>51.624760381000002</v>
       </c>
       <c r="F94" s="1">
-        <v>62.817520247994679</v>
+        <v>65.879316934000002</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2808,19 +2779,19 @@
         <v>148</v>
       </c>
       <c r="B95" s="1">
-        <v>36.896906153734193</v>
+        <v>35.361828484</v>
       </c>
       <c r="C95" s="1">
-        <v>31.665237057855641</v>
+        <v>31.665237057999999</v>
       </c>
       <c r="D95" s="1">
-        <v>48.119085220982868</v>
+        <v>44.550317286999999</v>
       </c>
       <c r="E95" s="1">
-        <v>16.77784853368837</v>
+        <v>16.777848534</v>
       </c>
       <c r="F95" s="1">
-        <v>48.030198816724791</v>
+        <v>45.707962369999997</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,19 +2799,19 @@
         <v>56</v>
       </c>
       <c r="B96" s="1">
-        <v>54.856312854478873</v>
+        <v>57.139102057000002</v>
       </c>
       <c r="C96" s="1">
-        <v>53.95717216481529</v>
+        <v>53.957172165000003</v>
       </c>
       <c r="D96" s="1">
-        <v>54.486235223629762</v>
+        <v>59.190745909999997</v>
       </c>
       <c r="E96" s="1">
-        <v>38.726071711998188</v>
+        <v>38.726071712</v>
       </c>
       <c r="F96" s="1">
-        <v>72.89038147772861</v>
+        <v>77.24756146</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2848,19 +2819,19 @@
         <v>85</v>
       </c>
       <c r="B97" s="1">
-        <v>49.845091952828682</v>
+        <v>47.691838771999997</v>
       </c>
       <c r="C97" s="1">
-        <v>41.397967338046641</v>
+        <v>41.397967338000001</v>
       </c>
       <c r="D97" s="1">
-        <v>54.119844175639606</v>
+        <v>49.143879189000003</v>
       </c>
       <c r="E97" s="1">
-        <v>42.018826712225632</v>
+        <v>42.018826711999999</v>
       </c>
       <c r="F97" s="1">
-        <v>63.929915781388402</v>
+        <v>60.627597356000003</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2868,19 +2839,19 @@
         <v>149</v>
       </c>
       <c r="B98" s="1">
-        <v>43.029964259417078</v>
+        <v>45.104137772000001</v>
       </c>
       <c r="C98" s="1">
-        <v>40.9258114838048</v>
+        <v>40.925811484</v>
       </c>
       <c r="D98" s="1">
-        <v>43.293458191640767</v>
+        <v>48.371541692999998</v>
       </c>
       <c r="E98" s="1">
-        <v>39.602769950662648</v>
+        <v>39.602769950999999</v>
       </c>
       <c r="F98" s="1">
-        <v>49.218146833254409</v>
+        <v>51.971889146000002</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2888,19 +2859,19 @@
         <v>86</v>
       </c>
       <c r="B99" s="1">
-        <v>45.920758651727652</v>
+        <v>48.415679898</v>
       </c>
       <c r="C99" s="1">
-        <v>39.312518318808053</v>
+        <v>39.312518318999999</v>
       </c>
       <c r="D99" s="1">
-        <v>42.473963996277369</v>
+        <v>46.630896171000003</v>
       </c>
       <c r="E99" s="1">
-        <v>48.912900542202813</v>
+        <v>48.912900542000003</v>
       </c>
       <c r="F99" s="1">
-        <v>58.011169243807302</v>
+        <v>64.250377209999996</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2908,19 +2879,19 @@
         <v>120</v>
       </c>
       <c r="B100" s="1">
-        <v>45.233748744818882</v>
+        <v>45.689458797999997</v>
       </c>
       <c r="C100" s="1">
-        <v>43.80342378502268</v>
+        <v>43.803423785</v>
       </c>
       <c r="D100" s="1">
-        <v>45.475233834273837</v>
+        <v>43.928879109</v>
       </c>
       <c r="E100" s="1">
-        <v>36.705052420930407</v>
+        <v>36.705052420999998</v>
       </c>
       <c r="F100" s="1">
-        <v>55.54570487421924</v>
+        <v>60.143787230000001</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2928,19 +2899,19 @@
         <v>121</v>
       </c>
       <c r="B101" s="1">
-        <v>46.765540583856591</v>
+        <v>46.375444682999998</v>
       </c>
       <c r="C101" s="1">
-        <v>54.748255525937367</v>
+        <v>54.748255526000001</v>
       </c>
       <c r="D101" s="1">
-        <v>46.093839509347532</v>
+        <v>47.674444532000003</v>
       </c>
       <c r="E101" s="1">
-        <v>30.114618407815669</v>
+        <v>30.114618407999998</v>
       </c>
       <c r="F101" s="1">
-        <v>52.449941958539917</v>
+        <v>48.128554921000003</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2948,19 +2919,19 @@
         <v>150</v>
       </c>
       <c r="B102" s="1">
-        <v>42.618705088670737</v>
+        <v>41.652359760000003</v>
       </c>
       <c r="C102" s="1">
-        <v>35.652265270999131</v>
+        <v>35.652265270999997</v>
       </c>
       <c r="D102" s="1">
-        <v>53.340931244200107</v>
+        <v>51.972943747000002</v>
       </c>
       <c r="E102" s="1">
-        <v>27.55227742938677</v>
+        <v>27.552277429</v>
       </c>
       <c r="F102" s="1">
-        <v>52.051453241168062</v>
+        <v>49.271707843000002</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2968,19 +2939,19 @@
         <v>57</v>
       </c>
       <c r="B103" s="1">
-        <v>57.443417861077791</v>
+        <v>59.266476349000001</v>
       </c>
       <c r="C103" s="1">
-        <v>57.542960604531018</v>
+        <v>57.542960604999998</v>
       </c>
       <c r="D103" s="1">
-        <v>54.231582329897428</v>
+        <v>58.473830175000003</v>
       </c>
       <c r="E103" s="1">
-        <v>55.180990041410119</v>
+        <v>55.180990041000001</v>
       </c>
       <c r="F103" s="1">
-        <v>64.374284862336168</v>
+        <v>67.126205534999997</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2988,19 +2959,19 @@
         <v>87</v>
       </c>
       <c r="B104" s="1">
-        <v>49.666299370529863</v>
+        <v>49.349419060000002</v>
       </c>
       <c r="C104" s="1">
-        <v>38.24666552364716</v>
+        <v>38.246665524000001</v>
       </c>
       <c r="D104" s="1">
-        <v>57.539578856377453</v>
+        <v>57.976938918999998</v>
       </c>
       <c r="E104" s="1">
-        <v>35.334389318780332</v>
+        <v>35.334389319000003</v>
       </c>
       <c r="F104" s="1">
-        <v>69.317740963832051</v>
+        <v>67.077299319000005</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -3008,19 +2979,19 @@
         <v>58</v>
       </c>
       <c r="B105" s="1">
-        <v>52.657392053618842</v>
+        <v>51.80143666</v>
       </c>
       <c r="C105" s="1">
-        <v>57.881480574681241</v>
+        <v>57.881480574999998</v>
       </c>
       <c r="D105" s="1">
-        <v>27.977515669416501</v>
+        <v>22.918899884999998</v>
       </c>
       <c r="E105" s="1">
-        <v>55.619015713084544</v>
+        <v>55.619015713000003</v>
       </c>
       <c r="F105" s="1">
-        <v>78.879450188863046</v>
+        <v>82.187596896000002</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -3028,19 +2999,19 @@
         <v>151</v>
       </c>
       <c r="B106" s="1">
-        <v>45.674803524933331</v>
+        <v>46.829877103999998</v>
       </c>
       <c r="C106" s="1">
-        <v>39.235588611364122</v>
+        <v>39.235588610999997</v>
       </c>
       <c r="D106" s="1">
-        <v>45.198863217352717</v>
+        <v>48.182644447999998</v>
       </c>
       <c r="E106" s="1">
-        <v>29.232032784524989</v>
+        <v>29.232032785000001</v>
       </c>
       <c r="F106" s="1">
-        <v>72.49030709706642</v>
+        <v>73.790003146000004</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3048,19 +3019,19 @@
         <v>88</v>
       </c>
       <c r="B107" s="1">
-        <v>52.313974974738798</v>
+        <v>53.961246772000003</v>
       </c>
       <c r="C107" s="1">
-        <v>42.660069759728053</v>
+        <v>42.660069759999999</v>
       </c>
       <c r="D107" s="1">
-        <v>60.804307217274427</v>
+        <v>65.182829669</v>
       </c>
       <c r="E107" s="1">
-        <v>53.864145507983878</v>
+        <v>53.864145508</v>
       </c>
       <c r="F107" s="1">
-        <v>52.50916390020636</v>
+        <v>54.177739211000002</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3068,19 +3039,19 @@
         <v>59</v>
       </c>
       <c r="B108" s="1">
-        <v>55.564819994388778</v>
+        <v>57.028340245999999</v>
       </c>
       <c r="C108" s="1">
-        <v>57.100420478289777</v>
+        <v>57.100420477999997</v>
       </c>
       <c r="D108" s="1">
-        <v>56.591819943492922</v>
+        <v>58.152688267000002</v>
       </c>
       <c r="E108" s="1">
-        <v>47.719708279988552</v>
+        <v>47.719708279999999</v>
       </c>
       <c r="F108" s="1">
-        <v>59.566031059281293</v>
+        <v>64.542329832999997</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3088,19 +3059,19 @@
         <v>32</v>
       </c>
       <c r="B109" s="1">
-        <v>81.323537308939407</v>
+        <v>86.486664761</v>
       </c>
       <c r="C109" s="1">
-        <v>69.741857930628782</v>
+        <v>69.741857930999998</v>
       </c>
       <c r="D109" s="1">
-        <v>79.408292958778603</v>
+        <v>91.454926838000006</v>
       </c>
       <c r="E109" s="1">
-        <v>96.804190018720988</v>
+        <v>96.804190019000004</v>
       </c>
       <c r="F109" s="1">
-        <v>86.088270191864979</v>
+        <v>93.833956635000007</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -3108,19 +3079,19 @@
         <v>60</v>
       </c>
       <c r="B110" s="1">
-        <v>56.478833843711378</v>
+        <v>58.315469583000002</v>
       </c>
       <c r="C110" s="1">
-        <v>53.886408609080178</v>
+        <v>53.886408609</v>
       </c>
       <c r="D110" s="1">
-        <v>55.736920898063168</v>
+        <v>58.416485002999998</v>
       </c>
       <c r="E110" s="1">
-        <v>46.643641882918722</v>
+        <v>46.643641883000001</v>
       </c>
       <c r="F110" s="1">
-        <v>71.315533074923138</v>
+        <v>76.479365611999995</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3128,19 +3099,19 @@
         <v>33</v>
       </c>
       <c r="B111" s="1">
-        <v>62.073211175441273</v>
+        <v>65.205604261000005</v>
       </c>
       <c r="C111" s="1">
-        <v>64.998140771067568</v>
+        <v>64.998140770999996</v>
       </c>
       <c r="D111" s="1">
-        <v>56.958195795318602</v>
+        <v>63.423415069999997</v>
       </c>
       <c r="E111" s="1">
-        <v>52.024259832358702</v>
+        <v>52.024259831999998</v>
       </c>
       <c r="F111" s="1">
-        <v>75.407291195268442</v>
+        <v>81.371427710000006</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3148,19 +3119,19 @@
         <v>122</v>
       </c>
       <c r="B112" s="1">
-        <v>47.382143327957444</v>
+        <v>49.295915493000003</v>
       </c>
       <c r="C112" s="1">
-        <v>45.473011873629908</v>
+        <v>45.473011874000001</v>
       </c>
       <c r="D112" s="1">
-        <v>47.293086090141543</v>
+        <v>54.703875177</v>
       </c>
       <c r="E112" s="1">
-        <v>31.907493174298629</v>
+        <v>31.907493173999999</v>
       </c>
       <c r="F112" s="1">
-        <v>65.854076519831409</v>
+        <v>64.306753716000003</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3168,19 +3139,19 @@
         <v>34</v>
       </c>
       <c r="B113" s="1">
-        <v>61.275390204828767</v>
+        <v>64.894243587000005</v>
       </c>
       <c r="C113" s="1">
-        <v>61.429117685266419</v>
+        <v>61.429117685000001</v>
       </c>
       <c r="D113" s="1">
-        <v>56.42984200452014</v>
+        <v>64.725062825999998</v>
       </c>
       <c r="E113" s="1">
-        <v>51.02663674893649</v>
+        <v>51.026636748999998</v>
       </c>
       <c r="F113" s="1">
-        <v>78.561874740527543</v>
+        <v>84.213310418000006</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3188,19 +3159,19 @@
         <v>89</v>
       </c>
       <c r="B114" s="1">
-        <v>48.854382021629903</v>
+        <v>50.770686892000001</v>
       </c>
       <c r="C114" s="1">
-        <v>52.906400285949083</v>
+        <v>52.906400286</v>
       </c>
       <c r="D114" s="1">
-        <v>45.632891712279083</v>
+        <v>49.813359034999998</v>
       </c>
       <c r="E114" s="1">
-        <v>34.556239490001609</v>
+        <v>34.556239490000003</v>
       </c>
       <c r="F114" s="1">
-        <v>61.906732620805641</v>
+        <v>65.217555986999997</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3208,19 +3179,19 @@
         <v>61</v>
       </c>
       <c r="B115" s="1">
-        <v>53.860486503666507</v>
+        <v>57.052935214999998</v>
       </c>
       <c r="C115" s="1">
-        <v>55.482249889529541</v>
+        <v>55.482249889999999</v>
       </c>
       <c r="D115" s="1">
-        <v>50.321783519632071</v>
+        <v>56.292616707000001</v>
       </c>
       <c r="E115" s="1">
-        <v>41.258182033098741</v>
+        <v>41.258182032999997</v>
       </c>
       <c r="F115" s="1">
-        <v>69.338200371491439</v>
+        <v>76.344194146999996</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3228,19 +3199,19 @@
         <v>123</v>
       </c>
       <c r="B116" s="1">
-        <v>47.979314756767309</v>
+        <v>48.398870522000003</v>
       </c>
       <c r="C116" s="1">
-        <v>49.98985831840443</v>
+        <v>49.989858318000003</v>
       </c>
       <c r="D116" s="1">
-        <v>44.185626775241197</v>
+        <v>45.508805101999997</v>
       </c>
       <c r="E116" s="1">
-        <v>31.709685191925779</v>
+        <v>31.709685191999998</v>
       </c>
       <c r="F116" s="1">
-        <v>66.923660951442344</v>
+        <v>67.036672287000002</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3248,19 +3219,19 @@
         <v>90</v>
       </c>
       <c r="B117" s="1">
-        <v>50.110906207849851</v>
+        <v>51.652685527000003</v>
       </c>
       <c r="C117" s="1">
-        <v>41.797375148478473</v>
+        <v>41.797375148</v>
       </c>
       <c r="D117" s="1">
-        <v>50.927974111361898</v>
+        <v>50.730376991</v>
       </c>
       <c r="E117" s="1">
-        <v>54.537099177920233</v>
+        <v>54.537099177999998</v>
       </c>
       <c r="F117" s="1">
-        <v>56.929407971568487</v>
+        <v>64.934700249000002</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3268,19 +3239,19 @@
         <v>62</v>
       </c>
       <c r="B118" s="1">
-        <v>55.947793507098417</v>
+        <v>55.390593314999997</v>
       </c>
       <c r="C118" s="1">
-        <v>43.051320254048917</v>
+        <v>43.051320253999997</v>
       </c>
       <c r="D118" s="1">
-        <v>70.434073295868458</v>
+        <v>66.541222829999995</v>
       </c>
       <c r="E118" s="1">
-        <v>48.094631461166863</v>
+        <v>48.094631460999999</v>
       </c>
       <c r="F118" s="1">
-        <v>61.416245749449168</v>
+        <v>64.469520489999994</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3288,19 +3259,19 @@
         <v>124</v>
       </c>
       <c r="B119" s="1">
-        <v>45.790925977522903</v>
+        <v>39.209981655999997</v>
       </c>
       <c r="C119" s="1">
-        <v>38.351801288435489</v>
+        <v>38.351801287999997</v>
       </c>
       <c r="D119" s="1">
-        <v>58.975153141991882</v>
+        <v>44.616456741999997</v>
       </c>
       <c r="E119" s="1">
-        <v>29.111972269411709</v>
+        <v>29.111972268999999</v>
       </c>
       <c r="F119" s="1">
-        <v>53.852225972561712</v>
+        <v>42.485548964000003</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3308,19 +3279,19 @@
         <v>63</v>
       </c>
       <c r="B120" s="1">
-        <v>53.08109750369443</v>
+        <v>55.812757472000001</v>
       </c>
       <c r="C120" s="1">
-        <v>49.944288061912509</v>
+        <v>49.944288061999998</v>
       </c>
       <c r="D120" s="1">
-        <v>53.514097303364323</v>
+        <v>62.505225389000003</v>
       </c>
       <c r="E120" s="1">
-        <v>41.925809053318567</v>
+        <v>41.925809053000002</v>
       </c>
       <c r="F120" s="1">
-        <v>68.292100417238373</v>
+        <v>68.463708127000004</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3328,19 +3299,19 @@
         <v>152</v>
       </c>
       <c r="B121" s="1">
-        <v>43.746807171809891</v>
+        <v>40.888583050999998</v>
       </c>
       <c r="C121" s="1">
-        <v>35.970250062488283</v>
+        <v>35.970250061999998</v>
       </c>
       <c r="D121" s="1">
-        <v>55.435994804666848</v>
+        <v>48.234115373999998</v>
       </c>
       <c r="E121" s="1">
-        <v>36.207852333490187</v>
+        <v>36.207852332999998</v>
       </c>
       <c r="F121" s="1">
-        <v>45.416816224826562</v>
+        <v>41.928514767999999</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3348,19 +3319,19 @@
         <v>91</v>
       </c>
       <c r="B122" s="1">
-        <v>48.661359761394777</v>
+        <v>49.413895754000002</v>
       </c>
       <c r="C122" s="1">
-        <v>43.940352940370524</v>
+        <v>43.940352939999997</v>
       </c>
       <c r="D122" s="1">
-        <v>48.209448656069128</v>
+        <v>51.612606432</v>
       </c>
       <c r="E122" s="1">
-        <v>51.237327516348422</v>
+        <v>51.237327516000001</v>
       </c>
       <c r="F122" s="1">
-        <v>53.844768895965998</v>
+        <v>52.502712193000001</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3368,19 +3339,19 @@
         <v>64</v>
       </c>
       <c r="B123" s="1">
-        <v>57.674436682474628</v>
+        <v>59.782788795999998</v>
       </c>
       <c r="C123" s="1">
-        <v>56.235924890246039</v>
+        <v>56.23592489</v>
       </c>
       <c r="D123" s="1">
-        <v>57.783748428329368</v>
+        <v>62.11253799</v>
       </c>
       <c r="E123" s="1">
-        <v>54.582470715238031</v>
+        <v>54.582470714999999</v>
       </c>
       <c r="F123" s="1">
-        <v>62.76020271927198</v>
+        <v>66.808778942000004</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3388,19 +3359,19 @@
         <v>92</v>
       </c>
       <c r="B124" s="1">
-        <v>54.02072218721289</v>
+        <v>52.161486511</v>
       </c>
       <c r="C124" s="1">
-        <v>44.046166830051583</v>
+        <v>44.046166829999997</v>
       </c>
       <c r="D124" s="1">
-        <v>60.221826271261513</v>
+        <v>56.784540092999997</v>
       </c>
       <c r="E124" s="1">
-        <v>44.819105896977057</v>
+        <v>44.819105897</v>
       </c>
       <c r="F124" s="1">
-        <v>68.882515387117735</v>
+        <v>64.742266272999998</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3408,19 +3379,19 @@
         <v>153</v>
       </c>
       <c r="B125" s="1">
-        <v>43.879347725902647</v>
+        <v>44.169714106999997</v>
       </c>
       <c r="C125" s="1">
-        <v>36.174074919554002</v>
+        <v>36.174074920000002</v>
       </c>
       <c r="D125" s="1">
-        <v>47.470729600334167</v>
+        <v>48.898917795999999</v>
       </c>
       <c r="E125" s="1">
-        <v>33.407650142337737</v>
+        <v>33.407650142000001</v>
       </c>
       <c r="F125" s="1">
-        <v>60.521881707343198</v>
+        <v>59.831431317000003</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3428,19 +3399,19 @@
         <v>93</v>
       </c>
       <c r="B126" s="1">
-        <v>46.70259976958252</v>
+        <v>47.384372081000002</v>
       </c>
       <c r="C126" s="1">
-        <v>38.149299391532303</v>
+        <v>38.149299392000003</v>
       </c>
       <c r="D126" s="1">
-        <v>41.405814001323208</v>
+        <v>48.733669796999997</v>
       </c>
       <c r="E126" s="1">
-        <v>51.481747097474852</v>
+        <v>51.481747097000003</v>
       </c>
       <c r="F126" s="1">
-        <v>62.698581661154492</v>
+        <v>55.115659522999998</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3448,19 +3419,19 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>48.163491428511428</v>
+        <v>48.232718292000001</v>
       </c>
       <c r="C127" s="1">
-        <v>48.005263800106157</v>
+        <v>48.005263800000002</v>
       </c>
       <c r="D127" s="1">
-        <v>53.99731614609717</v>
+        <v>55.321749932000003</v>
       </c>
       <c r="E127" s="1">
-        <v>37.830847436398933</v>
+        <v>37.830847435999999</v>
       </c>
       <c r="F127" s="1">
-        <v>49.982739786853223</v>
+        <v>48.342223425</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,19 +3439,19 @@
         <v>65</v>
       </c>
       <c r="B128" s="1">
-        <v>52.547232498973209</v>
+        <v>54.636907241999999</v>
       </c>
       <c r="C128" s="1">
-        <v>46.145808834286363</v>
+        <v>46.145808834</v>
       </c>
       <c r="D128" s="1">
-        <v>53.797696816273067</v>
+        <v>58.858233986000002</v>
       </c>
       <c r="E128" s="1">
-        <v>41.340208624756421</v>
+        <v>41.340208625000002</v>
       </c>
       <c r="F128" s="1">
-        <v>71.480695394270469</v>
+        <v>74.338263354000006</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3488,19 +3459,19 @@
         <v>154</v>
       </c>
       <c r="B129" s="1">
-        <v>43.600920831899018</v>
+        <v>40.9651432</v>
       </c>
       <c r="C129" s="1">
-        <v>39.245034608420532</v>
+        <v>39.245034607999997</v>
       </c>
       <c r="D129" s="1">
-        <v>66.09764959014187</v>
+        <v>57.030334408999998</v>
       </c>
       <c r="E129" s="1">
-        <v>38.620955892605167</v>
+        <v>38.620955893000001</v>
       </c>
       <c r="F129" s="1">
-        <v>21.369621969046349</v>
+        <v>21.791706579</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3508,19 +3479,19 @@
         <v>126</v>
       </c>
       <c r="B130" s="1">
-        <v>48.022672399273858</v>
+        <v>47.560926762999998</v>
       </c>
       <c r="C130" s="1">
-        <v>38.699752483271268</v>
+        <v>38.699752482999997</v>
       </c>
       <c r="D130" s="1">
-        <v>56.228041246143881</v>
+        <v>56.392930309</v>
       </c>
       <c r="E130" s="1">
-        <v>41.613235451638133</v>
+        <v>41.613235451999998</v>
       </c>
       <c r="F130" s="1">
-        <v>56.108435950608417</v>
+        <v>53.552374172999997</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3528,19 +3499,19 @@
         <v>94</v>
       </c>
       <c r="B131" s="1">
-        <v>51.313501256124198</v>
+        <v>48.031430747000002</v>
       </c>
       <c r="C131" s="1">
-        <v>39.073238395475087</v>
+        <v>39.073238394999997</v>
       </c>
       <c r="D131" s="1">
-        <v>60.73488175383256</v>
+        <v>51.805523203</v>
       </c>
       <c r="E131" s="1">
-        <v>46.917942920701982</v>
+        <v>46.917942920999998</v>
       </c>
       <c r="F131" s="1">
-        <v>59.937383135957553</v>
+        <v>56.921068415000001</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3548,19 +3519,19 @@
         <v>155</v>
       </c>
       <c r="B132" s="1">
-        <v>37.996590965708037</v>
+        <v>38.566235749000001</v>
       </c>
       <c r="C132" s="1">
-        <v>34.521066826202599</v>
+        <v>34.521066826000002</v>
       </c>
       <c r="D132" s="1">
-        <v>42.135842822765213</v>
+        <v>47.704283332999999</v>
       </c>
       <c r="E132" s="1">
-        <v>33.742143833909132</v>
+        <v>33.742143833999997</v>
       </c>
       <c r="F132" s="1">
-        <v>41.255446521179351</v>
+        <v>35.751009672000002</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3568,19 +3539,19 @@
         <v>127</v>
       </c>
       <c r="B133" s="1">
-        <v>47.115076236414588</v>
+        <v>48.331454868999998</v>
       </c>
       <c r="C133" s="1">
-        <v>42.859611322287698</v>
+        <v>42.859611321999999</v>
       </c>
       <c r="D133" s="1">
-        <v>44.946719599129693</v>
+        <v>48.476578922000002</v>
       </c>
       <c r="E133" s="1">
-        <v>36.575182120807142</v>
+        <v>36.575182120999997</v>
       </c>
       <c r="F133" s="1">
-        <v>67.29070267913977</v>
+        <v>68.077806859000006</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3588,19 +3559,19 @@
         <v>156</v>
       </c>
       <c r="B134" s="1">
-        <v>40.324626629643689</v>
+        <v>38.811801189000001</v>
       </c>
       <c r="C134" s="1">
-        <v>36.060980651985602</v>
+        <v>36.060980651999998</v>
       </c>
       <c r="D134" s="1">
-        <v>43.147971381378227</v>
+        <v>42.130358379999997</v>
       </c>
       <c r="E134" s="1">
-        <v>23.316158304645569</v>
+        <v>23.316158304999998</v>
       </c>
       <c r="F134" s="1">
-        <v>59.493546793527138</v>
+        <v>53.455839093000002</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3608,19 +3579,19 @@
         <v>157</v>
       </c>
       <c r="B135" s="1">
-        <v>39.932217365208992</v>
+        <v>37.069880517000001</v>
       </c>
       <c r="C135" s="1">
-        <v>14.556493317849471</v>
+        <v>14.556493317999999</v>
       </c>
       <c r="D135" s="1">
-        <v>52.720371395800903</v>
+        <v>48.373993921999997</v>
       </c>
       <c r="E135" s="1">
-        <v>48.921578793622338</v>
+        <v>48.921578793999998</v>
       </c>
       <c r="F135" s="1">
-        <v>49.824210961947053</v>
+        <v>42.032092931999998</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3628,19 +3599,19 @@
         <v>158</v>
       </c>
       <c r="B136" s="1">
-        <v>40.256175035175261</v>
+        <v>37.004815821999998</v>
       </c>
       <c r="C136" s="1">
-        <v>37.473886775622987</v>
+        <v>37.473886776000001</v>
       </c>
       <c r="D136" s="1">
-        <v>52.283885516129338</v>
+        <v>50.807126044</v>
       </c>
       <c r="E136" s="1">
-        <v>19.506194807068251</v>
+        <v>19.506194807</v>
       </c>
       <c r="F136" s="1">
-        <v>47.138021931179559</v>
+        <v>33.096365073000001</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3648,19 +3619,19 @@
         <v>66</v>
       </c>
       <c r="B137" s="1">
-        <v>54.539903359436387</v>
+        <v>54.309823448000003</v>
       </c>
       <c r="C137" s="1">
-        <v>44.447799752449882</v>
+        <v>44.447799752000002</v>
       </c>
       <c r="D137" s="1">
-        <v>57.960509091941638</v>
+        <v>59.515343991000002</v>
       </c>
       <c r="E137" s="1">
-        <v>53.50316597691139</v>
+        <v>53.503165977000002</v>
       </c>
       <c r="F137" s="1">
-        <v>65.583887553683283</v>
+        <v>62.101235647000003</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3668,19 +3639,19 @@
         <v>95</v>
       </c>
       <c r="B138" s="1">
-        <v>51.456908298149543</v>
+        <v>53.74060617</v>
       </c>
       <c r="C138" s="1">
-        <v>51.120683558527851</v>
+        <v>51.120683559</v>
       </c>
       <c r="D138" s="1">
-        <v>50.500815253448302</v>
+        <v>55.676100591999997</v>
       </c>
       <c r="E138" s="1">
-        <v>44.627023467243902</v>
+        <v>44.627023467000001</v>
       </c>
       <c r="F138" s="1">
-        <v>60.225269805539561</v>
+        <v>63.880831155000003</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3688,19 +3659,19 @@
         <v>128</v>
       </c>
       <c r="B139" s="1">
-        <v>48.18232799360301</v>
+        <v>49.925600611</v>
       </c>
       <c r="C139" s="1">
-        <v>44.821373093500362</v>
+        <v>44.821373094000002</v>
       </c>
       <c r="D139" s="1">
-        <v>48.184619918427423</v>
+        <v>54.564162263</v>
       </c>
       <c r="E139" s="1">
-        <v>39.716376860914806</v>
+        <v>39.716376861000001</v>
       </c>
       <c r="F139" s="1">
-        <v>61.686273589208533</v>
+        <v>60.833323157999999</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3708,19 +3679,19 @@
         <v>67</v>
       </c>
       <c r="B140" s="1">
-        <v>58.145719283899368</v>
+        <v>60.973988923</v>
       </c>
       <c r="C140" s="1">
-        <v>44.556913141421042</v>
+        <v>44.556913141000003</v>
       </c>
       <c r="D140" s="1">
-        <v>64.566242771193899</v>
+        <v>71.007711322999995</v>
       </c>
       <c r="E140" s="1">
-        <v>59.761352681634563</v>
+        <v>59.761352682000002</v>
       </c>
       <c r="F140" s="1">
-        <v>67.282509868939925</v>
+        <v>71.761655235000006</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3728,19 +3699,19 @@
         <v>159</v>
       </c>
       <c r="B141" s="1">
-        <v>44.330021197058123</v>
+        <v>44.109568095</v>
       </c>
       <c r="C141" s="1">
-        <v>37.879712830356887</v>
+        <v>37.879712830000003</v>
       </c>
       <c r="D141" s="1">
-        <v>49.671097802961349</v>
+        <v>49.145534273000003</v>
       </c>
       <c r="E141" s="1">
-        <v>27.11053065487307</v>
+        <v>27.110530655000002</v>
       </c>
       <c r="F141" s="1">
-        <v>63.213359380440153</v>
+        <v>62.899439164999997</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3748,19 +3719,19 @@
         <v>68</v>
       </c>
       <c r="B142" s="1">
-        <v>55.980779591759948</v>
+        <v>56.095116257999997</v>
       </c>
       <c r="C142" s="1">
-        <v>61.454490480024191</v>
+        <v>61.454490479999997</v>
       </c>
       <c r="D142" s="1">
-        <v>55.457331660865918</v>
+        <v>56.247994757000001</v>
       </c>
       <c r="E142" s="1">
-        <v>46.636503484605313</v>
+        <v>46.636503484999999</v>
       </c>
       <c r="F142" s="1">
-        <v>57.899661262859297</v>
+        <v>57.285349949</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3768,19 +3739,19 @@
         <v>160</v>
       </c>
       <c r="B143" s="1">
-        <v>39.425355552787323</v>
+        <v>42.263755085</v>
       </c>
       <c r="C143" s="1">
-        <v>40.473126050301651</v>
+        <v>40.473126049999998</v>
       </c>
       <c r="D143" s="1">
-        <v>48.466223375292778</v>
+        <v>53.115968721000002</v>
       </c>
       <c r="E143" s="1">
-        <v>29.29873609748531</v>
+        <v>29.298736096999999</v>
       </c>
       <c r="F143" s="1">
-        <v>34.419017528059641</v>
+        <v>41.636397172999999</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,19 +3759,19 @@
         <v>161</v>
       </c>
       <c r="B144" s="1">
-        <v>39.990538338275407</v>
+        <v>39.534196690000002</v>
       </c>
       <c r="C144" s="1">
-        <v>38.64570812277244</v>
+        <v>38.645708122999999</v>
       </c>
       <c r="D144" s="1">
-        <v>39.741329016800293</v>
+        <v>44.732883725000001</v>
       </c>
       <c r="E144" s="1">
-        <v>17.676922318233672</v>
+        <v>17.676922317999999</v>
       </c>
       <c r="F144" s="1">
-        <v>64.695213663784259</v>
+        <v>54.926173360999996</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3808,19 +3779,19 @@
         <v>35</v>
       </c>
       <c r="B145" s="1">
-        <v>64.655821372213438</v>
+        <v>69.584652868000006</v>
       </c>
       <c r="C145" s="1">
-        <v>62.443253594703563</v>
+        <v>62.443253595000002</v>
       </c>
       <c r="D145" s="1">
-        <v>52.724814663164601</v>
+        <v>65.693425168000005</v>
       </c>
       <c r="E145" s="1">
-        <v>70.739497057344536</v>
+        <v>70.739497056999994</v>
       </c>
       <c r="F145" s="1">
-        <v>79.787507416920363</v>
+        <v>84.978749136000005</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3828,19 +3799,19 @@
         <v>96</v>
       </c>
       <c r="B146" s="1">
-        <v>49.443538508512979</v>
+        <v>50.416619924000003</v>
       </c>
       <c r="C146" s="1">
-        <v>44.76255327754815</v>
+        <v>44.762553277999999</v>
       </c>
       <c r="D146" s="1">
-        <v>54.155495531258417</v>
+        <v>54.975590609000001</v>
       </c>
       <c r="E146" s="1">
-        <v>38.527483270186437</v>
+        <v>38.527483269999998</v>
       </c>
       <c r="F146" s="1">
-        <v>60.313136059168599</v>
+        <v>63.948400521000003</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3848,19 +3819,19 @@
         <v>97</v>
       </c>
       <c r="B147" s="1">
-        <v>50.283556417924501</v>
+        <v>52.780688908999998</v>
       </c>
       <c r="C147" s="1">
-        <v>48.745817901413709</v>
+        <v>48.745817901000002</v>
       </c>
       <c r="D147" s="1">
-        <v>49.684468295066118</v>
+        <v>54.200897869999999</v>
       </c>
       <c r="E147" s="1">
-        <v>35.540247631122597</v>
+        <v>35.540247631</v>
       </c>
       <c r="F147" s="1">
-        <v>68.232105163780147</v>
+        <v>73.943123256999996</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3868,19 +3839,19 @@
         <v>36</v>
       </c>
       <c r="B148" s="1">
-        <v>60.336633388177503</v>
+        <v>61.541916704000002</v>
       </c>
       <c r="C148" s="1">
-        <v>62.112219680666463</v>
+        <v>62.112219680999999</v>
       </c>
       <c r="D148" s="1">
-        <v>58.833903738735501</v>
+        <v>60.060098406000002</v>
       </c>
       <c r="E148" s="1">
-        <v>50.168128205034769</v>
+        <v>50.168128205000002</v>
       </c>
       <c r="F148" s="1">
-        <v>70.095853606749785</v>
+        <v>74.282978186999998</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,19 +3859,19 @@
         <v>98</v>
       </c>
       <c r="B149" s="1">
-        <v>48.727250707330157</v>
+        <v>50.087000480999997</v>
       </c>
       <c r="C149" s="1">
-        <v>47.575600032845458</v>
+        <v>47.575600033000001</v>
       </c>
       <c r="D149" s="1">
-        <v>46.144540233212162</v>
+        <v>49.571248718</v>
       </c>
       <c r="E149" s="1">
-        <v>43.475172819536482</v>
+        <v>43.475172819999997</v>
       </c>
       <c r="F149" s="1">
-        <v>59.580870318027877</v>
+        <v>61.239556460999999</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,19 +3879,19 @@
         <v>162</v>
       </c>
       <c r="B150" s="1">
-        <v>48.13527864094587</v>
+        <v>46.214410966999999</v>
       </c>
       <c r="C150" s="1">
-        <v>51.579440640296809</v>
+        <v>51.579440640000001</v>
       </c>
       <c r="D150" s="1">
-        <v>55.042515863277508</v>
+        <v>50.949187459999997</v>
       </c>
       <c r="E150" s="1">
-        <v>36.864930912517757</v>
+        <v>36.864930913000002</v>
       </c>
       <c r="F150" s="1">
-        <v>43.878527536850108</v>
+        <v>40.414181769000002</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,19 +3899,19 @@
         <v>129</v>
       </c>
       <c r="B151" s="1">
-        <v>47.463613575039012</v>
+        <v>48.089122627000002</v>
       </c>
       <c r="C151" s="1">
-        <v>38.074504159438042</v>
+        <v>38.074504159</v>
       </c>
       <c r="D151" s="1">
-        <v>49.988627492352123</v>
+        <v>50.842856070000003</v>
       </c>
       <c r="E151" s="1">
-        <v>50.768837912184424</v>
+        <v>50.768837912000002</v>
       </c>
       <c r="F151" s="1">
-        <v>54.454532485325323</v>
+        <v>56.300734876999996</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3948,19 +3919,19 @@
         <v>130</v>
       </c>
       <c r="B152" s="1">
-        <v>46.517214577921393</v>
+        <v>48.648809430999997</v>
       </c>
       <c r="C152" s="1">
-        <v>41.722716015337973</v>
+        <v>41.722716015000003</v>
       </c>
       <c r="D152" s="1">
-        <v>49.979159861026119</v>
+        <v>54.971865811999997</v>
       </c>
       <c r="E152" s="1">
-        <v>27.72050044792492</v>
+        <v>27.720500447999999</v>
       </c>
       <c r="F152" s="1">
-        <v>67.312758627135878</v>
+        <v>70.481673963999995</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,19 +3939,19 @@
         <v>69</v>
       </c>
       <c r="B153" s="1">
-        <v>56.086213800450032</v>
+        <v>53.840829915</v>
       </c>
       <c r="C153" s="1">
-        <v>39.511214574484029</v>
+        <v>39.511214574</v>
       </c>
       <c r="D153" s="1">
-        <v>71.62314182241947</v>
+        <v>61.691241460000001</v>
       </c>
       <c r="E153" s="1">
-        <v>50.526588783849093</v>
+        <v>50.526588783999998</v>
       </c>
       <c r="F153" s="1">
-        <v>63.202945623045807</v>
+        <v>66.873876737000003</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,19 +3959,19 @@
         <v>163</v>
       </c>
       <c r="B154" s="1">
-        <v>35.57512340751088</v>
+        <v>35.712616128999997</v>
       </c>
       <c r="C154" s="1">
-        <v>16.363667186151449</v>
+        <v>16.363667186000001</v>
       </c>
       <c r="D154" s="1">
-        <v>42.481086158552891</v>
+        <v>45.297227507999999</v>
       </c>
       <c r="E154" s="1">
-        <v>34.866298444654461</v>
+        <v>34.866298444999998</v>
       </c>
       <c r="F154" s="1">
-        <v>54.742188575843443</v>
+        <v>51.205440160999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,19 +3979,19 @@
         <v>37</v>
       </c>
       <c r="B155" s="1">
-        <v>59.006307008597119</v>
+        <v>64.160775113</v>
       </c>
       <c r="C155" s="1">
-        <v>69.354928539851642</v>
+        <v>69.354928540000003</v>
       </c>
       <c r="D155" s="1">
-        <v>43.231745528563152</v>
+        <v>58.362856463999996</v>
       </c>
       <c r="E155" s="1">
-        <v>51.481645040144173</v>
+        <v>51.481645039999997</v>
       </c>
       <c r="F155" s="1">
-        <v>74.669878900219274</v>
+        <v>77.745553018999999</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4028,19 +3999,19 @@
         <v>99</v>
       </c>
       <c r="B156" s="1">
-        <v>49.973586059905237</v>
+        <v>52.020997395000002</v>
       </c>
       <c r="C156" s="1">
-        <v>47.497598475780258</v>
+        <v>47.497598476</v>
       </c>
       <c r="D156" s="1">
-        <v>42.174557954098837</v>
+        <v>46.786399506999999</v>
       </c>
       <c r="E156" s="1">
-        <v>45.665903798607808</v>
+        <v>45.665903798999999</v>
       </c>
       <c r="F156" s="1">
-        <v>69.693791856099764</v>
+        <v>73.013086204000004</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,19 +4019,19 @@
         <v>164</v>
       </c>
       <c r="B157" s="1">
-        <v>42.375573928375779</v>
+        <v>42.964642527000002</v>
       </c>
       <c r="C157" s="1">
-        <v>32.273557949877294</v>
+        <v>32.273557949999997</v>
       </c>
       <c r="D157" s="1">
-        <v>45.327039846024711</v>
+        <v>47.497473941000003</v>
       </c>
       <c r="E157" s="1">
-        <v>32.921022611712168</v>
+        <v>32.921022612000002</v>
       </c>
       <c r="F157" s="1">
-        <v>62.555950336313707</v>
+        <v>62.245642185000001</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4068,19 +4039,19 @@
         <v>100</v>
       </c>
       <c r="B158" s="1">
-        <v>49.336530039488999</v>
+        <v>44.888590139999998</v>
       </c>
       <c r="C158" s="1">
-        <v>40.53200831732218</v>
+        <v>40.532008316999999</v>
       </c>
       <c r="D158" s="1">
-        <v>60.957903394248802</v>
+        <v>54.233468090000002</v>
       </c>
       <c r="E158" s="1">
-        <v>39.67003402772594</v>
+        <v>39.670034028000003</v>
       </c>
       <c r="F158" s="1">
-        <v>54.777748602362578</v>
+        <v>42.624702061999997</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4088,19 +4059,19 @@
         <v>131</v>
       </c>
       <c r="B159" s="1">
-        <v>47.836773898568417</v>
+        <v>48.747370338000003</v>
       </c>
       <c r="C159" s="1">
-        <v>42.584099069353989</v>
+        <v>42.584099068999997</v>
       </c>
       <c r="D159" s="1">
-        <v>47.428293831617893</v>
+        <v>49.401331001000003</v>
       </c>
       <c r="E159" s="1">
-        <v>43.137185518229742</v>
+        <v>43.137185518000003</v>
       </c>
       <c r="F159" s="1">
-        <v>61.028094623154537</v>
+        <v>62.621521067000003</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,25 +4079,22 @@
         <v>132</v>
       </c>
       <c r="B160" s="1">
-        <v>45.494437289991843</v>
+        <v>46.038914497</v>
       </c>
       <c r="C160" s="1">
-        <v>44.041192554363541</v>
+        <v>44.041192553999998</v>
       </c>
       <c r="D160" s="1">
-        <v>45.209161727652862</v>
+        <v>46.704010123000003</v>
       </c>
       <c r="E160" s="1">
-        <v>33.923257751320413</v>
+        <v>33.923257751000001</v>
       </c>
       <c r="F160" s="1">
-        <v>59.673397275614157</v>
+        <v>60.153510718</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F160">
-    <sortCondition ref="A2:A160"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>